--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45887.49638888889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45835.61137731482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45147</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45874.38917824074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45350</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45476</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>46002.48862268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46002</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44237</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44386</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>45824.64866898148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45646.72123842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45947.6665625</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,273 +1890,274 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
+          <t>A 1251-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44572</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46061</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Järpe
+Grönsiska
+Sparvuggla</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/artfynd/A 1251-2022 artfynd.xlsx", "A 1251-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/kartor/A 1251-2022 karta.png", "A 1251-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomål/A 1251-2022 FSC-klagomål.docx", "A 1251-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomålsmail/A 1251-2022 FSC-klagomål mail.docx", "A 1251-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsyn/A 1251-2022 tillsynsbegäran.docx", "A 1251-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsynsmail/A 1251-2022 tillsynsbegäran mail.docx", "A 1251-2022")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2031/fåglar/A 1251-2022 prioriterade fågelarter.docx", "A 1251-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>A 44438-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44435</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46060</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46061</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.9</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Gulnål
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/artfynd/A 44438-2021 artfynd.xlsx", "A 44438-2021")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/kartor/A 44438-2021 karta.png", "A 44438-2021")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomål/A 44438-2021 FSC-klagomål.docx", "A 44438-2021")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomålsmail/A 44438-2021 FSC-klagomål mail.docx", "A 44438-2021")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsyn/A 44438-2021 tillsynsbegäran.docx", "A 44438-2021")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsynsmail/A 44438-2021 tillsynsbegäran mail.docx", "A 44438-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 51227-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45947.66400462963</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46060</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46061</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>6.8</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Kolflarnlav
 Mörk kolflarnlav
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/artfynd/A 51227-2025 artfynd.xlsx", "A 51227-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/kartor/A 51227-2025 karta.png", "A 51227-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomål/A 51227-2025 FSC-klagomål.docx", "A 51227-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomålsmail/A 51227-2025 FSC-klagomål mail.docx", "A 51227-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsyn/A 51227-2025 tillsynsbegäran.docx", "A 51227-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsynsmail/A 51227-2025 tillsynsbegäran mail.docx", "A 51227-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 1251-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44572</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46060</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Järpe
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/artfynd/A 1251-2022 artfynd.xlsx", "A 1251-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/kartor/A 1251-2022 karta.png", "A 1251-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomål/A 1251-2022 FSC-klagomål.docx", "A 1251-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/klagomålsmail/A 1251-2022 FSC-klagomål mail.docx", "A 1251-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsyn/A 1251-2022 tillsynsbegäran.docx", "A 1251-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/tillsynsmail/A 1251-2022 tillsynsbegäran mail.docx", "A 1251-2022")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2031/fåglar/A 1251-2022 prioriterade fågelarter.docx", "A 1251-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
@@ -2167,7 +2168,7 @@
         <v>45393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2253,7 +2254,7 @@
         <v>45665.5678587963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2339,7 +2340,7 @@
         <v>45222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,7 +2431,7 @@
         <v>45534.63258101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2517,7 @@
         <v>45033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2603,7 @@
         <v>45720.55679398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2689,7 @@
         <v>45476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2775,7 @@
         <v>45845</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2865,7 +2866,7 @@
         <v>45965.31166666667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2951,7 +2952,7 @@
         <v>45978.51803240741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3038,7 @@
         <v>45986.33803240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3128,7 +3129,7 @@
         <v>46036</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3218,7 +3219,7 @@
         <v>45534.36650462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3304,7 +3305,7 @@
         <v>45490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3390,7 +3391,7 @@
         <v>44470.56413194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3480,7 +3481,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,7 +3566,7 @@
         <v>44361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3651,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3736,7 @@
         <v>44568</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3829,7 +3830,7 @@
         <v>44414</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3919,7 +3920,7 @@
         <v>45517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4009,7 +4010,7 @@
         <v>45588.32491898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4094,7 +4095,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4179,7 +4180,7 @@
         <v>45231</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4265,7 @@
         <v>45194</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4349,7 +4350,7 @@
         <v>45726.46378472223</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4434,7 +4435,7 @@
         <v>45758</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4525,7 @@
         <v>45841.40885416666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4614,7 +4615,7 @@
         <v>44911</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4700,7 @@
         <v>45975.59050925926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4789,7 +4790,7 @@
         <v>44511</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4874,7 +4875,7 @@
         <v>46027.63283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4959,7 +4960,7 @@
         <v>45986.55873842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5053,7 +5054,7 @@
         <v>45531.6003125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5138,7 +5139,7 @@
         <v>45996.62631944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5223,7 +5224,7 @@
         <v>46042.54230324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5308,7 +5309,7 @@
         <v>46052.41604166666</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5393,7 +5394,7 @@
         <v>46036</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5478,7 +5479,7 @@
         <v>44918</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5568,7 +5569,7 @@
         <v>45772.61609953704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5662,7 +5663,7 @@
         <v>45415</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5747,7 +5748,7 @@
         <v>45406.48300925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5832,7 +5833,7 @@
         <v>45686.32865740741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5917,7 +5918,7 @@
         <v>45411.46664351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6007,7 +6008,7 @@
         <v>45784.99015046296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6092,7 +6093,7 @@
         <v>45524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6177,7 +6178,7 @@
         <v>44300</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6234,7 +6235,7 @@
         <v>44326</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6291,7 +6292,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6348,7 +6349,7 @@
         <v>44792.51143518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6410,7 +6411,7 @@
         <v>44860</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6472,7 +6473,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6534,7 +6535,7 @@
         <v>44238.45722222222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6591,7 +6592,7 @@
         <v>44280</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6648,7 +6649,7 @@
         <v>44469.23111111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6710,7 +6711,7 @@
         <v>44495.57832175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6772,7 +6773,7 @@
         <v>44495.57938657407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6834,7 +6835,7 @@
         <v>44495.58121527778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6896,7 +6897,7 @@
         <v>44350</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6953,7 +6954,7 @@
         <v>44497.97938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7010,7 +7011,7 @@
         <v>44536.66678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7067,7 +7068,7 @@
         <v>44330.57261574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7124,7 +7125,7 @@
         <v>44336</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7186,7 +7187,7 @@
         <v>44460.61314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7243,7 +7244,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7300,7 +7301,7 @@
         <v>44421.30673611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7357,7 +7358,7 @@
         <v>44610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7419,7 +7420,7 @@
         <v>44449</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7481,7 +7482,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7538,7 +7539,7 @@
         <v>44763.44908564815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7595,7 +7596,7 @@
         <v>44620</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7652,7 +7653,7 @@
         <v>44347</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7709,7 +7710,7 @@
         <v>44763.67344907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7771,7 +7772,7 @@
         <v>44326</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7828,7 +7829,7 @@
         <v>44386</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7890,7 +7891,7 @@
         <v>44421</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7952,7 +7953,7 @@
         <v>44749</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8009,7 +8010,7 @@
         <v>44284</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8066,7 +8067,7 @@
         <v>44470</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8123,7 +8124,7 @@
         <v>44435.52408564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8180,7 +8181,7 @@
         <v>44470</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8242,7 +8243,7 @@
         <v>44638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8299,7 +8300,7 @@
         <v>44790.36993055556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8356,7 +8357,7 @@
         <v>44740</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8413,7 +8414,7 @@
         <v>44795</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8470,7 +8471,7 @@
         <v>44795.28973379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8527,7 +8528,7 @@
         <v>44377.58011574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8584,7 +8585,7 @@
         <v>44791</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8641,7 +8642,7 @@
         <v>44824</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8698,7 +8699,7 @@
         <v>44459</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8760,7 +8761,7 @@
         <v>44459</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8822,7 +8823,7 @@
         <v>44242</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8879,7 +8880,7 @@
         <v>44322</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8941,7 +8942,7 @@
         <v>44804.529375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8998,7 +8999,7 @@
         <v>44306</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9055,7 +9056,7 @@
         <v>44363</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9112,7 +9113,7 @@
         <v>44414</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9174,7 +9175,7 @@
         <v>44833.32222222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9231,7 +9232,7 @@
         <v>44326</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9288,7 +9289,7 @@
         <v>44391.69834490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9350,7 +9351,7 @@
         <v>44391.70168981481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9412,7 +9413,7 @@
         <v>44273</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9469,7 +9470,7 @@
         <v>44565.64167824074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9531,7 +9532,7 @@
         <v>44733.49084490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9588,7 +9589,7 @@
         <v>44305.44425925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9645,7 +9646,7 @@
         <v>44400.88949074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9702,7 +9703,7 @@
         <v>44459.60768518518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9764,7 +9765,7 @@
         <v>44484</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9826,7 +9827,7 @@
         <v>44874.80803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9883,7 +9884,7 @@
         <v>44451.90091435185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9945,7 +9946,7 @@
         <v>44571.6652662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10002,7 +10003,7 @@
         <v>44307</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10059,7 +10060,7 @@
         <v>44469.23025462963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10121,7 +10122,7 @@
         <v>44349</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10178,7 +10179,7 @@
         <v>44477</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10235,7 +10236,7 @@
         <v>44692</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10292,7 +10293,7 @@
         <v>44414.71174768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10354,7 +10355,7 @@
         <v>44432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10416,7 +10417,7 @@
         <v>44351</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10473,7 +10474,7 @@
         <v>44300.60704861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10530,7 +10531,7 @@
         <v>44774</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10592,7 +10593,7 @@
         <v>44838.32039351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10654,7 +10655,7 @@
         <v>44529</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10711,7 +10712,7 @@
         <v>44799.64722222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10774,7 @@
         <v>44727</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10830,7 +10831,7 @@
         <v>44799.64895833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10892,7 +10893,7 @@
         <v>44862.54098379629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10954,7 +10955,7 @@
         <v>44638</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11011,7 +11012,7 @@
         <v>44762</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11068,7 +11069,7 @@
         <v>44551</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11125,7 +11126,7 @@
         <v>44377.57457175926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11182,7 +11183,7 @@
         <v>44845.61091435186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11244,7 +11245,7 @@
         <v>44533</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11301,7 +11302,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11358,7 +11359,7 @@
         <v>44484.6912037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11420,7 +11421,7 @@
         <v>44839.41791666667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11482,7 +11483,7 @@
         <v>44839.42304398148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11544,7 +11545,7 @@
         <v>44414</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11606,7 +11607,7 @@
         <v>44819</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11663,7 +11664,7 @@
         <v>44544</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11720,7 +11721,7 @@
         <v>44552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11777,7 +11778,7 @@
         <v>44797.46636574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11834,7 +11835,7 @@
         <v>44559</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11891,7 +11892,7 @@
         <v>44644</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11948,7 +11949,7 @@
         <v>44489.60423611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12010,7 +12011,7 @@
         <v>44841</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12072,7 +12073,7 @@
         <v>44679.38747685185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12129,7 +12130,7 @@
         <v>44679.39083333333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12186,7 +12187,7 @@
         <v>44845.60875</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12248,7 +12249,7 @@
         <v>44579.39820601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12305,7 +12306,7 @@
         <v>44732</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12362,7 +12363,7 @@
         <v>44348</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12419,7 +12420,7 @@
         <v>44403.42903935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12476,7 +12477,7 @@
         <v>44441</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12538,7 +12539,7 @@
         <v>44537.29784722222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12595,7 +12596,7 @@
         <v>44537</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12652,7 +12653,7 @@
         <v>44537.62671296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12709,7 +12710,7 @@
         <v>44795.28498842593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12766,7 +12767,7 @@
         <v>44789.33553240741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12823,7 +12824,7 @@
         <v>44578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12880,7 +12881,7 @@
         <v>44351</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12938,7 @@
         <v>44748</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12994,7 +12995,7 @@
         <v>44749.55309027778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13057,7 @@
         <v>44424</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13113,7 +13114,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13170,7 +13171,7 @@
         <v>44818</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13227,7 +13228,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13284,7 +13285,7 @@
         <v>45321.4805787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13341,7 +13342,7 @@
         <v>44573.70490740741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13398,7 +13399,7 @@
         <v>44377</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13455,7 +13456,7 @@
         <v>45258.56001157407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13512,7 +13513,7 @@
         <v>44340</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13569,7 +13570,7 @@
         <v>45432.32908564815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13626,7 +13627,7 @@
         <v>45672</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13683,7 +13684,7 @@
         <v>44930</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13740,7 +13741,7 @@
         <v>44930</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13797,7 +13798,7 @@
         <v>44930</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13854,7 +13855,7 @@
         <v>44651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13911,7 +13912,7 @@
         <v>45425.5419212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13973,7 +13974,7 @@
         <v>45393</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14030,7 +14031,7 @@
         <v>44719</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14087,7 +14088,7 @@
         <v>44826.2996875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14144,7 +14145,7 @@
         <v>45267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14201,7 +14202,7 @@
         <v>45555.5039699074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14258,7 +14259,7 @@
         <v>44819</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14315,7 +14316,7 @@
         <v>45636.37861111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14372,7 +14373,7 @@
         <v>45523.59195601852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14434,7 +14435,7 @@
         <v>45596.36693287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14491,7 +14492,7 @@
         <v>45406.45538194444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14548,7 +14549,7 @@
         <v>45215.36112268519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14605,7 +14606,7 @@
         <v>44893.3391550926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14662,7 +14663,7 @@
         <v>45148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14719,7 +14720,7 @@
         <v>44349</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14776,7 +14777,7 @@
         <v>45517</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14833,7 +14834,7 @@
         <v>45351.53083333333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14890,7 +14891,7 @@
         <v>45720.63201388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14947,7 +14948,7 @@
         <v>44977.61744212963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15004,7 +15005,7 @@
         <v>45093</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15066,7 +15067,7 @@
         <v>44602</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15123,7 +15124,7 @@
         <v>45569.36322916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15185,7 +15186,7 @@
         <v>45671</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15242,7 +15243,7 @@
         <v>45537.30159722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15299,7 +15300,7 @@
         <v>45299.56534722223</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15356,7 +15357,7 @@
         <v>45021</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15413,7 +15414,7 @@
         <v>45231</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15470,7 +15471,7 @@
         <v>45231</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15527,7 +15528,7 @@
         <v>45344</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15584,7 +15585,7 @@
         <v>45201.37068287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15641,7 +15642,7 @@
         <v>44747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15698,7 +15699,7 @@
         <v>45539.40148148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15755,7 +15756,7 @@
         <v>45539.43168981482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15812,7 +15813,7 @@
         <v>45478</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15869,7 +15870,7 @@
         <v>45321.30668981482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15926,7 +15927,7 @@
         <v>45558</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15983,7 +15984,7 @@
         <v>45321.33197916667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16040,7 +16041,7 @@
         <v>45321.40265046297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16097,7 +16098,7 @@
         <v>45344.38203703704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16154,7 +16155,7 @@
         <v>45518.34582175926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16211,7 +16212,7 @@
         <v>45736.57638888889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16268,7 +16269,7 @@
         <v>45225</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16325,7 +16326,7 @@
         <v>45645</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16382,7 +16383,7 @@
         <v>45243.588125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16439,7 +16440,7 @@
         <v>45539.5587037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16497,7 @@
         <v>44281</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16554,7 @@
         <v>45737.43738425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16610,7 +16611,7 @@
         <v>45363.58723379629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16667,7 +16668,7 @@
         <v>45677</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16724,7 +16725,7 @@
         <v>45525.38068287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16786,7 +16787,7 @@
         <v>44890</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16843,7 +16844,7 @@
         <v>45321</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16900,7 +16901,7 @@
         <v>44242.55629629629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16957,7 +16958,7 @@
         <v>45253.65384259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17014,7 +17015,7 @@
         <v>45225</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17071,7 +17072,7 @@
         <v>44889.43208333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17128,7 +17129,7 @@
         <v>44991.62319444444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17185,7 +17186,7 @@
         <v>44922</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17242,7 +17243,7 @@
         <v>44872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17299,7 +17300,7 @@
         <v>45173</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17356,7 +17357,7 @@
         <v>45279</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17413,7 +17414,7 @@
         <v>45693.7193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17475,7 +17476,7 @@
         <v>45799.52755787037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17532,7 +17533,7 @@
         <v>45398.57138888889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17589,7 +17590,7 @@
         <v>45798.35150462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17651,7 +17652,7 @@
         <v>45161</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17713,7 +17714,7 @@
         <v>45799.52506944445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17770,7 +17771,7 @@
         <v>45884.6291087963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17832,7 +17833,7 @@
         <v>45352.64135416667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17889,7 +17890,7 @@
         <v>45597.66034722222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17946,7 +17947,7 @@
         <v>45749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18008,7 +18009,7 @@
         <v>45664.3863425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18065,7 +18066,7 @@
         <v>45194</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18122,7 +18123,7 @@
         <v>45798</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18179,7 +18180,7 @@
         <v>45513.52782407407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18241,7 +18242,7 @@
         <v>45799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18298,7 +18299,7 @@
         <v>45755.28888888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18355,7 +18356,7 @@
         <v>45555.45337962963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18412,7 +18413,7 @@
         <v>45803.58059027778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18469,7 +18470,7 @@
         <v>45373.45642361111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18527,7 @@
         <v>45622.42818287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18584,7 @@
         <v>45182</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18640,7 +18641,7 @@
         <v>45803.44761574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18702,7 +18703,7 @@
         <v>45803.45435185185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18764,7 +18765,7 @@
         <v>45803.45581018519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18826,7 +18827,7 @@
         <v>45887.46721064814</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18888,7 +18889,7 @@
         <v>45803.45840277777</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18950,7 +18951,7 @@
         <v>45453.58515046296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19012,7 +19013,7 @@
         <v>45803.44173611111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19075,7 @@
         <v>45884.43928240741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19132,7 @@
         <v>45531.61996527778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19189,7 @@
         <v>45755.29123842593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19246,7 @@
         <v>45623.57366898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19303,7 @@
         <v>45884.60569444444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19364,7 +19365,7 @@
         <v>45804.63291666667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19421,7 +19422,7 @@
         <v>45300.3930787037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19479,7 @@
         <v>45243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19535,7 +19536,7 @@
         <v>45362.46164351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19592,7 +19593,7 @@
         <v>45201.42883101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19649,7 +19650,7 @@
         <v>45884.42332175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19706,7 +19707,7 @@
         <v>45888.50637731481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19763,7 +19764,7 @@
         <v>45888</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19820,7 +19821,7 @@
         <v>45623.57618055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19877,7 +19878,7 @@
         <v>45742.59943287037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19934,7 +19935,7 @@
         <v>45742.60391203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19991,7 +19992,7 @@
         <v>45888.58789351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20048,7 +20049,7 @@
         <v>44300.60414351852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20105,7 +20106,7 @@
         <v>45810.62579861111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20162,7 +20163,7 @@
         <v>45888.40212962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20224,7 +20225,7 @@
         <v>45644</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20281,7 +20282,7 @@
         <v>45888.44871527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20343,7 +20344,7 @@
         <v>44882</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20400,7 +20401,7 @@
         <v>45377.38084490741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20462,7 +20463,7 @@
         <v>45813.42855324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20524,7 +20525,7 @@
         <v>45653.4371875</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20586,7 +20587,7 @@
         <v>45813.60965277778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20648,7 +20649,7 @@
         <v>44736</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20705,7 +20706,7 @@
         <v>45678.37991898148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20762,7 +20763,7 @@
         <v>45229.59721064815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20819,7 +20820,7 @@
         <v>45813</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20876,7 +20877,7 @@
         <v>45562.34228009259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20933,7 +20934,7 @@
         <v>45547.35722222222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20990,7 +20991,7 @@
         <v>45813</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21047,7 +21048,7 @@
         <v>45700.53663194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21104,7 +21105,7 @@
         <v>45895</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21161,7 +21162,7 @@
         <v>45895</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21218,7 +21219,7 @@
         <v>45895</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21275,7 +21276,7 @@
         <v>45894.65532407408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21332,7 +21333,7 @@
         <v>45894.6841087963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21394,7 +21395,7 @@
         <v>45894.6880787037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21456,7 +21457,7 @@
         <v>45817.65202546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21513,7 +21514,7 @@
         <v>45337.53060185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21570,7 +21571,7 @@
         <v>45817.63287037037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21632,7 +21633,7 @@
         <v>45742.60677083334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21689,7 +21690,7 @@
         <v>45742.60869212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21746,7 +21747,7 @@
         <v>45895.31238425926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21803,7 +21804,7 @@
         <v>45743.46100694445</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21865,7 +21866,7 @@
         <v>45033</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21922,7 +21923,7 @@
         <v>45539.43597222222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21979,7 +21980,7 @@
         <v>45002.4266087963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22036,7 +22037,7 @@
         <v>45223</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22098,7 +22099,7 @@
         <v>45641.90386574074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22155,7 +22156,7 @@
         <v>45896.2971412037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22212,7 +22213,7 @@
         <v>45896.64891203704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22269,7 +22270,7 @@
         <v>45896.64556712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22326,7 +22327,7 @@
         <v>45898.29179398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22383,7 +22384,7 @@
         <v>45275.31835648148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22440,7 +22441,7 @@
         <v>45819.55390046296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22502,7 +22503,7 @@
         <v>45901.45232638889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22564,7 +22565,7 @@
         <v>45544</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22621,7 +22622,7 @@
         <v>45901.303125</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22678,7 +22679,7 @@
         <v>45819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22735,7 +22736,7 @@
         <v>45412.62952546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22797,7 +22798,7 @@
         <v>45821.60831018518</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22854,7 +22855,7 @@
         <v>45757.29122685185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22911,7 +22912,7 @@
         <v>45902</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22968,7 +22969,7 @@
         <v>45820.52292824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23025,7 +23026,7 @@
         <v>45903.35346064815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23082,7 +23083,7 @@
         <v>45902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23139,7 +23140,7 @@
         <v>45085</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23196,7 +23197,7 @@
         <v>45903.32292824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23253,7 +23254,7 @@
         <v>45905.53444444444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23315,7 +23316,7 @@
         <v>45905.45695601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23377,7 +23378,7 @@
         <v>45245.48416666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23434,7 +23435,7 @@
         <v>45905.44015046296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23496,7 +23497,7 @@
         <v>45825.30818287037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23553,7 +23554,7 @@
         <v>45825</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23610,7 +23611,7 @@
         <v>45825.33085648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23667,7 +23668,7 @@
         <v>45168</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23724,7 +23725,7 @@
         <v>45908.41019675926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23781,7 +23782,7 @@
         <v>45908.53179398148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23843,7 +23844,7 @@
         <v>45825.51869212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23905,7 +23906,7 @@
         <v>45825.513125</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23967,7 +23968,7 @@
         <v>45825</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24024,7 +24025,7 @@
         <v>45481.37175925926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24081,7 +24082,7 @@
         <v>45909</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24138,7 +24139,7 @@
         <v>45621</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24195,7 +24196,7 @@
         <v>45825.32450231481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24252,7 +24253,7 @@
         <v>45911.56076388889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24309,7 +24310,7 @@
         <v>44742.47446759259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24366,7 +24367,7 @@
         <v>45911.45704861111</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24423,7 +24424,7 @@
         <v>45825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24480,7 +24481,7 @@
         <v>45910.56046296296</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24542,7 +24543,7 @@
         <v>45824.43866898148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24599,7 +24600,7 @@
         <v>45910.59958333334</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24656,7 +24657,7 @@
         <v>45824.56244212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24713,7 +24714,7 @@
         <v>45910.60777777778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24770,7 +24771,7 @@
         <v>45911.56247685185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24827,7 +24828,7 @@
         <v>45230</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24884,7 +24885,7 @@
         <v>45827.64935185185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24946,7 +24947,7 @@
         <v>45826.45706018519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25003,7 +25004,7 @@
         <v>45251</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25060,7 +25061,7 @@
         <v>45915.34190972222</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25117,7 +25118,7 @@
         <v>45915.36021990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25174,7 +25175,7 @@
         <v>45764</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25236,7 +25237,7 @@
         <v>45019</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25293,7 +25294,7 @@
         <v>45019</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25350,7 +25351,7 @@
         <v>45915.34418981482</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25407,7 +25408,7 @@
         <v>45205</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25469,7 +25470,7 @@
         <v>45912.43482638889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25531,7 +25532,7 @@
         <v>45915.37336805555</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25588,7 +25589,7 @@
         <v>45915.37585648148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25645,7 +25646,7 @@
         <v>45827.65038194445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25707,7 +25708,7 @@
         <v>45827.30564814815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25764,7 +25765,7 @@
         <v>45916.61092592592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25821,7 +25822,7 @@
         <v>45916.2806712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25878,7 +25879,7 @@
         <v>44271</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25935,7 +25936,7 @@
         <v>45421.52717592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25997,7 +25998,7 @@
         <v>45916.61517361111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26054,7 +26055,7 @@
         <v>45917.30706018519</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26111,7 +26112,7 @@
         <v>45831.3905787037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26168,7 +26169,7 @@
         <v>45831.55048611111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26225,7 +26226,7 @@
         <v>45646.64365740741</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26282,7 +26283,7 @@
         <v>45831.56690972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26339,7 +26340,7 @@
         <v>45919.29888888889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26396,7 +26397,7 @@
         <v>45310</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26453,7 +26454,7 @@
         <v>45920.57372685185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26510,7 +26511,7 @@
         <v>45769.389375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26567,7 +26568,7 @@
         <v>45266.58407407408</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26624,7 +26625,7 @@
         <v>45265</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26681,7 +26682,7 @@
         <v>45832.4041087963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26743,7 +26744,7 @@
         <v>45923.5828125</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26800,7 +26801,7 @@
         <v>45923.37561342592</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26857,7 +26858,7 @@
         <v>45922.68672453704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26914,7 +26915,7 @@
         <v>45833</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26971,7 +26972,7 @@
         <v>45635.63310185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27028,7 +27029,7 @@
         <v>45923.45712962963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27085,7 +27086,7 @@
         <v>45923.60047453704</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27142,7 +27143,7 @@
         <v>44621</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27199,7 +27200,7 @@
         <v>45359</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27256,7 +27257,7 @@
         <v>45253.60089120371</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27313,7 +27314,7 @@
         <v>45833</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27370,7 +27371,7 @@
         <v>45833.37924768519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27427,7 +27428,7 @@
         <v>45925.33582175926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27484,7 +27485,7 @@
         <v>44944.65050925926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27541,7 +27542,7 @@
         <v>45833</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27598,7 +27599,7 @@
         <v>44834</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27655,7 +27656,7 @@
         <v>45666.55527777778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27712,7 +27713,7 @@
         <v>45194.36666666667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27769,7 +27770,7 @@
         <v>45833.34159722222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27826,7 +27827,7 @@
         <v>45833.35479166666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27883,7 +27884,7 @@
         <v>45833</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27940,7 +27941,7 @@
         <v>45925.54184027778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28022,7 +28023,7 @@
         <v>45925.54701388889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28084,7 +28085,7 @@
         <v>45925.32719907408</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28141,7 +28142,7 @@
         <v>45926.47548611111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28198,7 +28199,7 @@
         <v>45679</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28255,7 +28256,7 @@
         <v>45513.53226851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28317,7 +28318,7 @@
         <v>45686.32821759259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28374,7 +28375,7 @@
         <v>45671</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28431,7 +28432,7 @@
         <v>45835.3232175926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28493,7 +28494,7 @@
         <v>45835.35462962963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28555,7 +28556,7 @@
         <v>45835.37127314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28617,7 +28618,7 @@
         <v>45686.46539351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28674,7 +28675,7 @@
         <v>45835.54628472222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28736,7 +28737,7 @@
         <v>45155</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28793,7 +28794,7 @@
         <v>45645.58376157407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28850,7 +28851,7 @@
         <v>45929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28907,7 +28908,7 @@
         <v>45931.7471875</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28969,7 +28970,7 @@
         <v>45833.89387731482</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29026,7 +29027,7 @@
         <v>45930.36114583333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29083,7 +29084,7 @@
         <v>45930.491875</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29140,7 +29141,7 @@
         <v>45930.48436342592</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29197,7 +29198,7 @@
         <v>45930.58505787037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29254,7 +29255,7 @@
         <v>45615.33318287037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29311,7 +29312,7 @@
         <v>45930.36337962963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29368,7 +29369,7 @@
         <v>45933.58769675926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29425,7 +29426,7 @@
         <v>45596.36552083334</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29482,7 +29483,7 @@
         <v>45603</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29539,7 +29540,7 @@
         <v>45694.3725</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29601,7 +29602,7 @@
         <v>45531.48523148148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29658,7 +29659,7 @@
         <v>45618</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29715,7 +29716,7 @@
         <v>44798</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29772,7 +29773,7 @@
         <v>45841.64982638889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29834,7 +29835,7 @@
         <v>45659</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29891,7 +29892,7 @@
         <v>45106.3487962963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29948,7 +29949,7 @@
         <v>45840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30005,7 +30006,7 @@
         <v>45840</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30062,7 +30063,7 @@
         <v>45841.40537037037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30124,7 +30125,7 @@
         <v>45560</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30181,7 +30182,7 @@
         <v>44529</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30238,7 +30239,7 @@
         <v>45264.60055555555</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30295,7 +30296,7 @@
         <v>45937.52008101852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30352,7 +30353,7 @@
         <v>45937.57186342592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30414,7 +30415,7 @@
         <v>45840</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30476,7 +30477,7 @@
         <v>45937.46483796297</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30533,7 +30534,7 @@
         <v>45726.43910879629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30590,7 +30591,7 @@
         <v>45939.33846064815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30647,7 +30648,7 @@
         <v>45938.46748842593</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30704,7 +30705,7 @@
         <v>45181</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30761,7 +30762,7 @@
         <v>45939.34798611111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30818,7 +30819,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30875,7 +30876,7 @@
         <v>45770.35403935185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30932,7 +30933,7 @@
         <v>45202</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30989,7 +30990,7 @@
         <v>45259.61207175926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31046,7 +31047,7 @@
         <v>45940.42287037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31103,7 +31104,7 @@
         <v>45943.6525462963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31160,7 +31161,7 @@
         <v>45939.82416666667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31217,7 +31218,7 @@
         <v>45943.56582175926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31279,7 +31280,7 @@
         <v>45637.61962962963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31336,7 +31337,7 @@
         <v>45939.82260416666</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31393,7 +31394,7 @@
         <v>45943.53743055555</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31455,7 +31456,7 @@
         <v>45943.62554398148</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31512,7 +31513,7 @@
         <v>45943.64564814815</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31569,7 +31570,7 @@
         <v>45940</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31626,7 +31627,7 @@
         <v>45440.46175925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31683,7 +31684,7 @@
         <v>45124.8894212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31740,7 +31741,7 @@
         <v>45733.56675925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31797,7 +31798,7 @@
         <v>45940</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31854,7 +31855,7 @@
         <v>45940</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31911,7 +31912,7 @@
         <v>45943.56230324074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31973,7 +31974,7 @@
         <v>45314</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32030,7 +32031,7 @@
         <v>45077</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32087,7 +32088,7 @@
         <v>45588.31988425926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32144,7 +32145,7 @@
         <v>45930</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32201,7 +32202,7 @@
         <v>45944.54912037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32263,7 +32264,7 @@
         <v>45569</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32320,7 +32321,7 @@
         <v>45297.50574074074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32382,7 +32383,7 @@
         <v>45539.53831018518</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32439,7 +32440,7 @@
         <v>45847.63825231481</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32501,7 +32502,7 @@
         <v>45321.33939814815</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32558,7 +32559,7 @@
         <v>45590.37570601852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32620,7 +32621,7 @@
         <v>45628.41666666666</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32677,7 +32678,7 @@
         <v>45245.31895833334</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32739,7 +32740,7 @@
         <v>45225</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32796,7 +32797,7 @@
         <v>45946.64559027777</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32853,7 +32854,7 @@
         <v>45849.34428240741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32915,7 +32916,7 @@
         <v>45849.53065972222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32977,7 +32978,7 @@
         <v>45209</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33039,7 +33040,7 @@
         <v>45534.40519675926</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33096,7 +33097,7 @@
         <v>45853.65163194444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33153,7 +33154,7 @@
         <v>45852.64936342592</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33215,7 +33216,7 @@
         <v>45855.41770833333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33277,7 +33278,7 @@
         <v>45854.47782407407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33334,7 +33335,7 @@
         <v>45776.29358796297</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33391,7 +33392,7 @@
         <v>45646</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33448,7 +33449,7 @@
         <v>44680</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33505,7 +33506,7 @@
         <v>45950.58851851852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33567,7 +33568,7 @@
         <v>45248.37060185185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33624,7 +33625,7 @@
         <v>45693.71571759259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33686,7 +33687,7 @@
         <v>45862.48969907407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33743,7 +33744,7 @@
         <v>45862.56081018518</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33800,7 +33801,7 @@
         <v>45953.35728009259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33857,7 +33858,7 @@
         <v>45952.32971064815</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33919,7 +33920,7 @@
         <v>44796.28063657408</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33976,7 +33977,7 @@
         <v>45952.61993055556</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34038,7 +34039,7 @@
         <v>45865.62479166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34100,7 +34101,7 @@
         <v>45952.61695601852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34162,7 +34163,7 @@
         <v>45952.61868055556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34224,7 +34225,7 @@
         <v>45953.60881944445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34286,7 +34287,7 @@
         <v>45358.49988425926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34343,7 +34344,7 @@
         <v>44928.42864583333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34400,7 +34401,7 @@
         <v>45954</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34457,7 +34458,7 @@
         <v>45873.54944444444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34514,7 +34515,7 @@
         <v>45957</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34571,7 +34572,7 @@
         <v>45957</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34628,7 +34629,7 @@
         <v>44964.72545138889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34685,7 +34686,7 @@
         <v>44515.47277777778</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34742,7 +34743,7 @@
         <v>45803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34799,7 +34800,7 @@
         <v>45958.62193287037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34861,7 +34862,7 @@
         <v>45958.37493055555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34918,7 +34919,7 @@
         <v>44347</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34975,7 +34976,7 @@
         <v>44641</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35032,7 +35033,7 @@
         <v>45874.47474537037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35094,7 +35095,7 @@
         <v>45393</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35151,7 +35152,7 @@
         <v>45266.32162037037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35208,7 +35209,7 @@
         <v>45874.43518518518</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35270,7 +35271,7 @@
         <v>45874.45763888889</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35332,7 +35333,7 @@
         <v>44684</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35389,7 +35390,7 @@
         <v>45539.55662037037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35446,7 +35447,7 @@
         <v>45259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35503,7 +35504,7 @@
         <v>45672</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35560,7 +35561,7 @@
         <v>44977</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35617,7 +35618,7 @@
         <v>45569.40421296296</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35674,7 +35675,7 @@
         <v>45876.69614583333</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35736,7 +35737,7 @@
         <v>45537.43009259259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35798,7 +35799,7 @@
         <v>45960.54859953704</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35855,7 +35856,7 @@
         <v>45686.34302083333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35912,7 +35913,7 @@
         <v>45960.61532407408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35969,7 +35970,7 @@
         <v>45877.55079861111</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36026,7 +36027,7 @@
         <v>45960.55550925926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36088,7 +36089,7 @@
         <v>45961</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36145,7 +36146,7 @@
         <v>45961.54652777778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36207,7 +36208,7 @@
         <v>45877.54670138889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36264,7 +36265,7 @@
         <v>44897</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36321,7 +36322,7 @@
         <v>45961.57497685185</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36383,7 +36384,7 @@
         <v>45960.46038194445</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36440,7 +36441,7 @@
         <v>45960.59271990741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36497,7 +36498,7 @@
         <v>44762.63053240741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36554,7 +36555,7 @@
         <v>45334.37760416666</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36611,7 +36612,7 @@
         <v>45880</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36668,7 +36669,7 @@
         <v>45965.43789351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36725,7 +36726,7 @@
         <v>45623.59871527777</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36782,7 +36783,7 @@
         <v>45539.57195601852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36839,7 +36840,7 @@
         <v>45965.43679398148</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36896,7 +36897,7 @@
         <v>45881.44997685185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36953,7 +36954,7 @@
         <v>45882.56026620371</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37010,7 +37011,7 @@
         <v>44909</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37092,7 +37093,7 @@
         <v>45967.67859953704</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37149,7 +37150,7 @@
         <v>45881.4490625</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37206,7 +37207,7 @@
         <v>45646.32006944445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37263,7 +37264,7 @@
         <v>45967.41774305556</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37320,7 +37321,7 @@
         <v>45967.68416666667</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37377,7 +37378,7 @@
         <v>45966.37459490741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37434,7 +37435,7 @@
         <v>45883</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37491,7 +37492,7 @@
         <v>45968.49980324074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37548,7 +37549,7 @@
         <v>45971</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37605,7 +37606,7 @@
         <v>45971.32695601852</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37662,7 +37663,7 @@
         <v>45971</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37719,7 +37720,7 @@
         <v>45882.54722222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37776,7 +37777,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37833,7 +37834,7 @@
         <v>45971</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37890,7 +37891,7 @@
         <v>45330</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37947,7 +37948,7 @@
         <v>45971.46777777778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38004,7 +38005,7 @@
         <v>45968.49690972222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38061,7 +38062,7 @@
         <v>45968</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38118,7 +38119,7 @@
         <v>45973.64146990741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38175,7 +38176,7 @@
         <v>45174.59534722222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38232,7 +38233,7 @@
         <v>45565.3477662037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38289,7 +38290,7 @@
         <v>45251</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38346,7 +38347,7 @@
         <v>45972.56847222222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38408,7 +38409,7 @@
         <v>45672</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38465,7 +38466,7 @@
         <v>45973</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38522,7 +38523,7 @@
         <v>45973.62686342592</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38579,7 +38580,7 @@
         <v>45245.48171296297</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38636,7 +38637,7 @@
         <v>45972.31445601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38693,7 +38694,7 @@
         <v>45621.61481481481</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38750,7 +38751,7 @@
         <v>45974</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38807,7 +38808,7 @@
         <v>45884.37982638889</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38864,7 +38865,7 @@
         <v>45974.53908564815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38921,7 +38922,7 @@
         <v>45974.70085648148</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38978,7 +38979,7 @@
         <v>45975.60946759259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39035,7 +39036,7 @@
         <v>45541.46949074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39092,7 +39093,7 @@
         <v>45721.41333333333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39149,7 +39150,7 @@
         <v>45167</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39206,7 +39207,7 @@
         <v>45520.62771990741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39268,7 +39269,7 @@
         <v>44840</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39325,7 +39326,7 @@
         <v>44964.7396875</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39382,7 +39383,7 @@
         <v>45537.34337962963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39439,7 +39440,7 @@
         <v>45257</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39496,7 +39497,7 @@
         <v>45537.34924768518</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39553,7 +39554,7 @@
         <v>45616.67972222222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39610,7 +39611,7 @@
         <v>45980.59570601852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39667,7 +39668,7 @@
         <v>45980.62126157407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39724,7 +39725,7 @@
         <v>45981.60518518519</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39781,7 +39782,7 @@
         <v>46025.31461805556</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39838,7 +39839,7 @@
         <v>46025.33549768518</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39895,7 +39896,7 @@
         <v>45985.47201388889</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39952,7 +39953,7 @@
         <v>45985.38504629629</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40009,7 +40010,7 @@
         <v>46027.59638888889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40066,7 +40067,7 @@
         <v>46027.62204861111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40123,7 +40124,7 @@
         <v>46027.688125</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40180,7 +40181,7 @@
         <v>45985.54118055556</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40237,7 +40238,7 @@
         <v>45567.33315972222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40294,7 +40295,7 @@
         <v>45742.32850694445</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40351,7 +40352,7 @@
         <v>44911</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40408,7 +40409,7 @@
         <v>45985.4344212963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40465,7 +40466,7 @@
         <v>45985.41136574074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40522,7 +40523,7 @@
         <v>45985.42835648148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40579,7 +40580,7 @@
         <v>46027.64972222222</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40636,7 +40637,7 @@
         <v>45985.4952662037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40693,7 +40694,7 @@
         <v>45985.51872685185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40750,7 +40751,7 @@
         <v>46025.31342592592</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40807,7 +40808,7 @@
         <v>45985.48290509259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40864,7 +40865,7 @@
         <v>45985.6084837963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40926,7 +40927,7 @@
         <v>46027.43237268519</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40983,7 +40984,7 @@
         <v>45986.36297453703</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41040,7 +41041,7 @@
         <v>44746</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41097,7 +41098,7 @@
         <v>44914</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41154,7 +41155,7 @@
         <v>44960.57613425926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41211,7 +41212,7 @@
         <v>45986.32636574074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41273,7 +41274,7 @@
         <v>45987.38523148148</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41335,7 +41336,7 @@
         <v>46029.82166666666</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41392,7 +41393,7 @@
         <v>45957</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41449,7 +41450,7 @@
         <v>45737.44092592593</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41506,7 +41507,7 @@
         <v>45986.32357638889</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41568,7 +41569,7 @@
         <v>45397.34418981482</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41625,7 +41626,7 @@
         <v>45986.61253472222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41682,7 +41683,7 @@
         <v>45264.59304398148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41739,7 +41740,7 @@
         <v>45989.49912037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41796,7 +41797,7 @@
         <v>45618</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41853,7 +41854,7 @@
         <v>46031.3459375</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41910,7 +41911,7 @@
         <v>45988.40418981481</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41972,7 +41973,7 @@
         <v>46031.5739699074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42029,7 +42030,7 @@
         <v>45989.61996527778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42086,7 +42087,7 @@
         <v>45989.62903935185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42143,7 +42144,7 @@
         <v>45321.29981481482</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42200,7 +42201,7 @@
         <v>44562</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42257,7 +42258,7 @@
         <v>45176</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42314,7 +42315,7 @@
         <v>45992.546875</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42371,7 +42372,7 @@
         <v>46034.50521990741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42428,7 +42429,7 @@
         <v>45695.47608796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42485,7 +42486,7 @@
         <v>45161.3783912037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42542,7 +42543,7 @@
         <v>44461</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42599,7 +42600,7 @@
         <v>44807.32344907407</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42656,7 +42657,7 @@
         <v>44418</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42713,7 +42714,7 @@
         <v>46034.50962962963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42770,7 +42771,7 @@
         <v>46035.43505787037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42827,7 +42828,7 @@
         <v>46036.66188657407</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42884,7 +42885,7 @@
         <v>45994.31027777777</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42941,7 +42942,7 @@
         <v>46036.66928240741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42998,7 +42999,7 @@
         <v>45621</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43055,7 +43056,7 @@
         <v>46036.39015046296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43112,7 +43113,7 @@
         <v>46037.59884259259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43169,7 +43170,7 @@
         <v>46037.60666666667</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43226,7 +43227,7 @@
         <v>45264.60821759259</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43283,7 +43284,7 @@
         <v>45994.65038194445</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43340,7 +43341,7 @@
         <v>45994.6740162037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43402,7 +43403,7 @@
         <v>46036.43516203704</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43459,7 +43460,7 @@
         <v>45603.63878472222</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43516,7 +43517,7 @@
         <v>45324</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43573,7 +43574,7 @@
         <v>45588.6134837963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43635,7 +43636,7 @@
         <v>45999.45813657407</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43692,7 +43693,7 @@
         <v>46037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43749,7 +43750,7 @@
         <v>45999.46466435185</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43806,7 +43807,7 @@
         <v>45632</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43863,7 +43864,7 @@
         <v>45071</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43920,7 +43921,7 @@
         <v>46042.48768518519</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43977,7 +43978,7 @@
         <v>46042.49140046296</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44034,7 +44035,7 @@
         <v>46043.58049768519</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44091,7 +44092,7 @@
         <v>46043</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44148,7 +44149,7 @@
         <v>46019</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44205,7 +44206,7 @@
         <v>46000.61697916667</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44262,7 +44263,7 @@
         <v>46043.47447916667</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44319,7 +44320,7 @@
         <v>44939.44358796296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44376,7 +44377,7 @@
         <v>46043</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44433,7 +44434,7 @@
         <v>45411.46914351852</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44495,7 +44496,7 @@
         <v>45771</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44557,7 +44558,7 @@
         <v>45771.66496527778</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44634,7 +44635,7 @@
         <v>46027.45892361111</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44691,7 +44692,7 @@
         <v>46000</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44748,7 +44749,7 @@
         <v>46042.5277199074</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44805,7 +44806,7 @@
         <v>45755.29549768518</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44862,7 +44863,7 @@
         <v>45622.69833333333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44919,7 +44920,7 @@
         <v>46000.46266203704</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44976,7 +44977,7 @@
         <v>46043.34798611111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45033,7 +45034,7 @@
         <v>46042.54991898148</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45090,7 +45091,7 @@
         <v>45265</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45147,7 +45148,7 @@
         <v>46045.43083333333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45204,7 +45205,7 @@
         <v>45617.32957175926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45261,7 +45262,7 @@
         <v>46003.32678240741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45318,7 +45319,7 @@
         <v>45639</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45375,7 +45376,7 @@
         <v>46030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45432,7 +45433,7 @@
         <v>44519</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45489,7 +45490,7 @@
         <v>45536.37116898148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45546,7 +45547,7 @@
         <v>46027</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45603,7 +45604,7 @@
         <v>46028.61246527778</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45665,7 +45666,7 @@
         <v>46027</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45722,7 +45723,7 @@
         <v>46002.46839120371</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45779,7 +45780,7 @@
         <v>46044.56256944445</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45836,7 +45837,7 @@
         <v>45159</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45898,7 +45899,7 @@
         <v>46048.45552083333</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45955,7 +45956,7 @@
         <v>46048.40181712963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46012,7 +46013,7 @@
         <v>46044</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46069,7 +46070,7 @@
         <v>46030</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46131,7 +46132,7 @@
         <v>46027</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46188,7 +46189,7 @@
         <v>46049.38959490741</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46250,7 +46251,7 @@
         <v>46049.47159722223</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46307,7 +46308,7 @@
         <v>46049.42783564814</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46364,7 +46365,7 @@
         <v>46049.38321759259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46421,7 +46422,7 @@
         <v>46048.40478009259</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46478,7 +46479,7 @@
         <v>45925.70106481481</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46540,7 +46541,7 @@
         <v>46048.58752314815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46597,7 +46598,7 @@
         <v>46007.64381944444</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46654,7 +46655,7 @@
         <v>46048.59709490741</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46711,7 +46712,7 @@
         <v>45737.40759259259</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46768,7 +46769,7 @@
         <v>46048.59642361111</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46825,7 +46826,7 @@
         <v>46048.42719907407</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46882,7 +46883,7 @@
         <v>45546.30100694444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46939,7 +46940,7 @@
         <v>45546.3049537037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46996,7 +46997,7 @@
         <v>46050.55347222222</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47053,7 +47054,7 @@
         <v>45267.46137731482</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47110,7 +47111,7 @@
         <v>46027</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47167,7 +47168,7 @@
         <v>46027</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47224,7 +47225,7 @@
         <v>45615.84907407407</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47281,7 +47282,7 @@
         <v>46027</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47338,7 +47339,7 @@
         <v>46050.31758101852</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47395,7 +47396,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47452,7 +47453,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47509,7 +47510,7 @@
         <v>46050.31621527778</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47566,7 +47567,7 @@
         <v>46009</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47623,7 +47624,7 @@
         <v>45090.476875</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47680,7 +47681,7 @@
         <v>44823</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47737,7 +47738,7 @@
         <v>44813.64364583333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47799,7 +47800,7 @@
         <v>45958</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47856,7 +47857,7 @@
         <v>46050.46100694445</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47913,7 +47914,7 @@
         <v>46050.34916666667</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47970,7 +47971,7 @@
         <v>46050.86938657407</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48027,7 +48028,7 @@
         <v>46050.31886574074</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48084,7 +48085,7 @@
         <v>46050.64984953704</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48141,7 +48142,7 @@
         <v>45310</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48198,7 +48199,7 @@
         <v>46033.62140046297</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48255,7 +48256,7 @@
         <v>46038</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48312,7 +48313,7 @@
         <v>46050.90109953703</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48369,7 +48370,7 @@
         <v>45775.64297453704</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48426,7 +48427,7 @@
         <v>44775.41023148148</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48483,7 +48484,7 @@
         <v>45551.36931712963</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48540,7 +48541,7 @@
         <v>45764.57375</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48602,7 +48603,7 @@
         <v>45443.35310185186</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48659,7 +48660,7 @@
         <v>46052.55123842593</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48716,7 +48717,7 @@
         <v>45307.58229166667</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48773,7 +48774,7 @@
         <v>46010.61001157408</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48835,7 +48836,7 @@
         <v>46010.61806712963</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48897,7 +48898,7 @@
         <v>46010.64998842592</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48959,7 +48960,7 @@
         <v>46010.544375</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49021,7 +49022,7 @@
         <v>46010.36474537037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49078,7 +49079,7 @@
         <v>44424.28652777777</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49140,7 +49141,7 @@
         <v>46041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49197,7 +49198,7 @@
         <v>46036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49254,7 +49255,7 @@
         <v>46013.3569212963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49311,7 +49312,7 @@
         <v>45282</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49368,7 +49369,7 @@
         <v>46052.5503587963</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49425,7 +49426,7 @@
         <v>46055</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49482,7 +49483,7 @@
         <v>46057.45892361111</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49539,7 +49540,7 @@
         <v>46029</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49596,7 +49597,7 @@
         <v>46057.62119212963</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49658,7 +49659,7 @@
         <v>46033.68228009259</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49715,7 +49716,7 @@
         <v>46033.69337962963</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49772,7 +49773,7 @@
         <v>46056.36570601852</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49834,7 +49835,7 @@
         <v>46033.69634259259</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49891,7 +49892,7 @@
         <v>46056.32505787037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49948,7 +49949,7 @@
         <v>46036</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50005,7 +50006,7 @@
         <v>45665.65398148148</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50062,7 +50063,7 @@
         <v>46056.34622685185</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50119,7 +50120,7 @@
         <v>46036</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50176,7 +50177,7 @@
         <v>46036</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50233,7 +50234,7 @@
         <v>46033.68042824074</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50295,7 +50296,7 @@
         <v>46033.67858796296</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50357,7 +50358,7 @@
         <v>46044</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50414,7 +50415,7 @@
         <v>44638</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50471,7 +50472,7 @@
         <v>46029</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50528,7 +50529,7 @@
         <v>46033.70020833334</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50585,7 +50586,7 @@
         <v>46057.43663194445</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50642,7 +50643,7 @@
         <v>45769</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50699,7 +50700,7 @@
         <v>45215.3990162037</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50756,7 +50757,7 @@
         <v>46042</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50813,7 +50814,7 @@
         <v>46037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50870,7 +50871,7 @@
         <v>46051.7003125</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50927,7 +50928,7 @@
         <v>44775</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50984,7 +50985,7 @@
         <v>44775</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51041,7 +51042,7 @@
         <v>44798</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51098,7 +51099,7 @@
         <v>46058.35150462963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51160,7 +51161,7 @@
         <v>46059.47275462963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51217,7 +51218,7 @@
         <v>46052</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51279,7 +51280,7 @@
         <v>46058.46925925926</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51341,7 +51342,7 @@
         <v>46036</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51398,7 +51399,7 @@
         <v>46037</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51455,7 +51456,7 @@
         <v>46056</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51517,7 +51518,7 @@
         <v>46057.97784722222</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51574,7 +51575,7 @@
         <v>44544.64829861111</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51631,7 +51632,7 @@
         <v>45625.54185185185</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51693,7 +51694,7 @@
         <v>46059.32809027778</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51750,7 +51751,7 @@
         <v>45680.42128472222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51807,7 +51808,7 @@
         <v>45436.45934027778</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51869,7 +51870,7 @@
         <v>45587.71474537037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51926,7 +51927,7 @@
         <v>45618</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51983,7 +51984,7 @@
         <v>45198.580625</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52040,7 +52041,7 @@
         <v>44790.36503472222</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52097,7 +52098,7 @@
         <v>44529</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52174,7 +52175,7 @@
         <v>45302.31002314815</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52231,7 +52232,7 @@
         <v>44818</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52288,7 +52289,7 @@
         <v>45097.36627314815</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52345,7 +52346,7 @@
         <v>45399</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52402,7 +52403,7 @@
         <v>45618</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52459,7 +52460,7 @@
         <v>45558</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52516,7 +52517,7 @@
         <v>45770</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52578,7 +52579,7 @@
         <v>45772.61135416666</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52640,7 +52641,7 @@
         <v>44953</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52697,7 +52698,7 @@
         <v>45217.5497800926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52754,7 +52755,7 @@
         <v>45321.50072916667</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52811,7 +52812,7 @@
         <v>45518.41333333333</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52868,7 +52869,7 @@
         <v>45518.43670138889</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52925,7 +52926,7 @@
         <v>45072</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52982,7 +52983,7 @@
         <v>44700.40244212963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53039,7 +53040,7 @@
         <v>45593.41905092593</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53096,7 +53097,7 @@
         <v>45586.42542824074</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53153,7 +53154,7 @@
         <v>44818</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53210,7 +53211,7 @@
         <v>45679.56291666667</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53267,7 +53268,7 @@
         <v>45379</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53324,7 +53325,7 @@
         <v>45243</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53381,7 +53382,7 @@
         <v>45516.34715277778</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53438,7 +53439,7 @@
         <v>45105</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53495,7 +53496,7 @@
         <v>45168</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53552,7 +53553,7 @@
         <v>45671</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53609,7 +53610,7 @@
         <v>45671</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53666,7 +53667,7 @@
         <v>45672</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53723,7 +53724,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53780,7 +53781,7 @@
         <v>45420.56627314815</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53842,7 +53843,7 @@
         <v>45107.41450231482</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53899,7 +53900,7 @@
         <v>45555.47621527778</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53956,7 +53957,7 @@
         <v>44910.44016203703</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54013,7 +54014,7 @@
         <v>45236.30247685185</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54070,7 +54071,7 @@
         <v>45722.53209490741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54127,7 +54128,7 @@
         <v>45590.36722222222</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54189,7 +54190,7 @@
         <v>45483.40959490741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54251,7 +54252,7 @@
         <v>45210.64642361111</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54308,7 +54309,7 @@
         <v>45329</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54365,7 +54366,7 @@
         <v>44571.60844907408</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54422,7 +54423,7 @@
         <v>45230.33048611111</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54479,7 +54480,7 @@
         <v>45243.58079861111</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54536,7 +54537,7 @@
         <v>45537.34827546297</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54593,7 +54594,7 @@
         <v>45426.38958333333</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54650,7 +54651,7 @@
         <v>44939.65450231481</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54707,7 +54708,7 @@
         <v>44728.57715277778</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54769,7 +54770,7 @@
         <v>45575.54640046296</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54831,7 +54832,7 @@
         <v>44818</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54888,7 +54889,7 @@
         <v>45317</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54945,7 +54946,7 @@
         <v>44929.44452546296</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55002,7 +55003,7 @@
         <v>45644.34916666667</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55059,7 +55060,7 @@
         <v>45183.60849537037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55116,7 +55117,7 @@
         <v>45769.43125</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55173,7 +55174,7 @@
         <v>45476.35585648148</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55230,7 +55231,7 @@
         <v>45642.35099537037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55287,7 +55288,7 @@
         <v>45642.35502314815</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55344,7 +55345,7 @@
         <v>44637</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55401,7 +55402,7 @@
         <v>45119.47708333333</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55458,7 +55459,7 @@
         <v>45223.37157407407</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55515,7 +55516,7 @@
         <v>44806.30716435185</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55572,7 +55573,7 @@
         <v>44519</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55629,7 +55630,7 @@
         <v>44875</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55686,7 +55687,7 @@
         <v>45646.7196412037</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55748,7 +55749,7 @@
         <v>45646.79003472222</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55805,7 +55806,7 @@
         <v>45582</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55862,7 +55863,7 @@
         <v>44841</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55919,7 +55920,7 @@
         <v>45639.64945601852</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55976,7 +55977,7 @@
         <v>45775.45716435185</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56038,7 +56039,7 @@
         <v>45098.64297453704</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56095,7 +56096,7 @@
         <v>44459.65792824074</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56157,7 +56158,7 @@
         <v>45567.38679398148</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56214,7 +56215,7 @@
         <v>45377.41113425926</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56271,7 +56272,7 @@
         <v>45182</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56328,7 +56329,7 @@
         <v>45194</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56390,7 +56391,7 @@
         <v>45187.45252314815</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56447,7 +56448,7 @@
         <v>45440.45778935185</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56504,7 +56505,7 @@
         <v>45072</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56566,7 +56567,7 @@
         <v>45329.35387731482</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56623,7 +56624,7 @@
         <v>45204.35597222222</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56680,7 +56681,7 @@
         <v>45516.57633101852</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56742,7 +56743,7 @@
         <v>45751.33146990741</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56799,7 +56800,7 @@
         <v>45194.46690972222</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56856,7 +56857,7 @@
         <v>45349.51662037037</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56913,7 +56914,7 @@
         <v>45245.46958333333</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56970,7 +56971,7 @@
         <v>44847</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57027,7 +57028,7 @@
         <v>45071.64552083334</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57084,7 +57085,7 @@
         <v>45641.91351851852</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57141,7 +57142,7 @@
         <v>45736.56929398148</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57198,7 +57199,7 @@
         <v>45611.49712962963</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57255,7 +57256,7 @@
         <v>45455.32771990741</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57317,7 +57318,7 @@
         <v>44930</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57374,7 +57375,7 @@
         <v>45371</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57431,7 +57432,7 @@
         <v>44517.52438657408</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57488,7 +57489,7 @@
         <v>45139</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57545,7 +57546,7 @@
         <v>45742.60196759259</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57602,7 +57603,7 @@
         <v>45231.4996875</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57659,7 +57660,7 @@
         <v>45231</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57716,7 +57717,7 @@
         <v>45534.40212962963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57773,7 +57774,7 @@
         <v>45392.44894675926</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57830,7 +57831,7 @@
         <v>44997.40393518518</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57887,7 +57888,7 @@
         <v>45575.54987268519</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57949,7 +57950,7 @@
         <v>45002.34532407407</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58006,7 +58007,7 @@
         <v>45259</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58063,7 +58064,7 @@
         <v>45625</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58120,7 +58121,7 @@
         <v>45267</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58177,7 +58178,7 @@
         <v>44746.35429398148</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58234,7 +58235,7 @@
         <v>45600.45541666666</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58291,7 +58292,7 @@
         <v>45232</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58348,7 +58349,7 @@
         <v>45635.63774305556</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58405,7 +58406,7 @@
         <v>44377</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58467,7 +58468,7 @@
         <v>45756.34162037037</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58524,7 +58525,7 @@
         <v>44907.52895833334</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58586,7 +58587,7 @@
         <v>45582</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58643,7 +58644,7 @@
         <v>45744</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58700,7 +58701,7 @@
         <v>44909</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58762,7 +58763,7 @@
         <v>45190</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58819,7 +58820,7 @@
         <v>45176.35158564815</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58881,7 +58882,7 @@
         <v>45484.42069444444</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58943,7 +58944,7 @@
         <v>44866</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59000,7 +59001,7 @@
         <v>45769</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59062,7 +59063,7 @@
         <v>45422.40207175926</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59124,7 +59125,7 @@
         <v>45516.60981481482</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59181,7 +59182,7 @@
         <v>45112</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59238,7 +59239,7 @@
         <v>45334.3753125</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59295,7 +59296,7 @@
         <v>45173.62484953704</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59352,7 +59353,7 @@
         <v>45772.28409722223</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59409,7 +59410,7 @@
         <v>45586.59115740741</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59471,7 +59472,7 @@
         <v>45733.57180555556</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59528,7 +59529,7 @@
         <v>45525.275</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59585,7 +59586,7 @@
         <v>45525.28571759259</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59642,7 +59643,7 @@
         <v>44551.68319444444</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59699,7 +59700,7 @@
         <v>45321</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59756,7 +59757,7 @@
         <v>45365.54094907407</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59813,7 +59814,7 @@
         <v>45622.3167824074</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59870,7 +59871,7 @@
         <v>44804.54327546297</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59927,7 +59928,7 @@
         <v>45686.45730324074</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59984,7 +59985,7 @@
         <v>45666.3599537037</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60041,7 +60042,7 @@
         <v>44475</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60098,7 +60099,7 @@
         <v>45641.92173611111</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60155,7 +60156,7 @@
         <v>45751</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60212,7 +60213,7 @@
         <v>45771.47921296296</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60269,7 +60270,7 @@
         <v>45112</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60326,7 +60327,7 @@
         <v>45595</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60383,7 +60384,7 @@
         <v>45188</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60440,7 +60441,7 @@
         <v>45560.50650462963</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60497,7 +60498,7 @@
         <v>45666</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60554,7 +60555,7 @@
         <v>45776.31802083334</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60611,7 +60612,7 @@
         <v>45776.39649305555</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60668,7 +60669,7 @@
         <v>45777</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60730,7 +60731,7 @@
         <v>45776.28881944445</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60787,7 +60788,7 @@
         <v>45764.57119212963</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60849,7 +60850,7 @@
         <v>45776.28671296296</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60906,7 +60907,7 @@
         <v>45776.3999537037</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60963,7 +60964,7 @@
         <v>45779</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61020,7 +61021,7 @@
         <v>45779.56446759259</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61082,7 +61083,7 @@
         <v>45616</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61139,7 +61140,7 @@
         <v>45782.56483796296</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61196,7 +61197,7 @@
         <v>45279</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61253,7 +61254,7 @@
         <v>45505.46570601852</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61310,7 +61311,7 @@
         <v>45782.44003472223</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61367,7 +61368,7 @@
         <v>44799.64663194444</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61429,7 +61430,7 @@
         <v>45784</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61486,7 +61487,7 @@
         <v>45602.67575231481</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61543,7 +61544,7 @@
         <v>45784.99393518519</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61600,7 +61601,7 @@
         <v>45351</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61657,7 +61658,7 @@
         <v>45545.59650462963</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -61714,7 +61715,7 @@
         <v>45784.34387731482</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -61771,7 +61772,7 @@
         <v>45273.66196759259</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -61828,7 +61829,7 @@
         <v>45505.46128472222</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -61885,7 +61886,7 @@
         <v>45582</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -61942,7 +61943,7 @@
         <v>45702</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -61999,7 +62000,7 @@
         <v>45505.45523148148</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62056,7 +62057,7 @@
         <v>45786</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62113,7 +62114,7 @@
         <v>45428.40965277778</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62170,7 +62171,7 @@
         <v>45516.60577546297</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62227,7 +62228,7 @@
         <v>45789.6521875</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62284,7 +62285,7 @@
         <v>45789.62225694444</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62341,7 +62342,7 @@
         <v>45552</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62398,7 +62399,7 @@
         <v>45791.53803240741</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62455,7 +62456,7 @@
         <v>45790.41590277778</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62512,7 +62513,7 @@
         <v>45188.58259259259</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62569,7 +62570,7 @@
         <v>45518.41770833333</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -62626,7 +62627,7 @@
         <v>45740.74896990741</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -62688,7 +62689,7 @@
         <v>45559.67018518518</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -62750,7 +62751,7 @@
         <v>45793.57851851852</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -62812,7 +62813,7 @@
         <v>45793.61202546296</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -62869,7 +62870,7 @@
         <v>45097</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -62931,7 +62932,7 @@
         <v>45097</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -62993,7 +62994,7 @@
         <v>45518</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63050,7 +63051,7 @@
         <v>45594.41760416667</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63107,7 +63108,7 @@
         <v>45796.66003472222</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63164,7 +63165,7 @@
         <v>45797.31393518519</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63221,7 +63222,7 @@
         <v>45796.45900462963</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63278,7 +63279,7 @@
         <v>45796.70064814815</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63335,7 +63336,7 @@
         <v>45533</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63392,7 +63393,7 @@
         <v>45796.46270833333</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63449,7 +63450,7 @@
         <v>45796</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45887.49638888889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45835.61137731482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45147</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45874.38917824074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45350</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45476</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>46002.48862268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46002</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44237</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44386</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>45824.64866898148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45646.72123842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45947.6665625</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44572</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44435</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45947.66400462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45393</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45665.5678587963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45534.63258101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45033</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45720.55679398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>45476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45845</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45965.31166666667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45978.51803240741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45986.33803240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>46036</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45534.36650462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44470.56413194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44568</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44414</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>45588.32491898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>45231</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45194</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45726.46378472223</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>45758</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45841.40885416666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44911</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45975.59050925926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44511</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>46027.63283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>45986.55873842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>45531.6003125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45996.62631944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>46042.54230324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>46052.41604166666</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>46036</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44918</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45772.61609953704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>45415</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45406.48300925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>45686.32865740741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45411.46664351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45784.99015046296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>45524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44300</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44326</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44792.51143518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44860</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44238.45722222222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44280</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44469.23111111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44495.57832175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44495.57938657407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44495.58121527778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44350</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44497.97938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44536.66678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44330.57261574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44336</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>44460.61314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44421.30673611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44449</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44763.44908564815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44620</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44347</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44763.67344907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44326</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44386</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44421</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44749</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44284</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44470</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44435.52408564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44470</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44790.36993055556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44740</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44795</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44795.28973379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44377.58011574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44791</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44824</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44459</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44459</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44242</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44322</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>44804.529375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>44306</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44363</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>44414</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44833.32222222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44326</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>44391.69834490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44391.70168981481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>44273</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44565.64167824074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44733.49084490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44305.44425925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44400.88949074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44459.60768518518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44484</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44874.80803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44451.90091435185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>44571.6652662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44307</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44469.23025462963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44349</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44477</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44692</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44414.71174768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44351</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44300.60704861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44774</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44838.32039351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44529</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44799.64722222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44727</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44799.64895833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44862.54098379629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44638</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44762</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44551</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44377.57457175926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44845.61091435186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44533</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44484.6912037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44839.41791666667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44839.42304398148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44414</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44819</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>44544</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44797.46636574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44559</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44644</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44489.60423611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44841</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44679.38747685185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44679.39083333333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44845.60875</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44579.39820601852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44732</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44348</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44403.42903935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44441</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44537.29784722222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44537</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44537.62671296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44795.28498842593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44789.33553240741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44351</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44748</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44749.55309027778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44424</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44511</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44818</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45321.4805787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>44573.70490740741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44377</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45258.56001157407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>44340</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45432.32908564815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>45672</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44930</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44930</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44930</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45425.5419212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45393</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44719</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>44826.2996875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45555.5039699074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44819</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45636.37861111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45523.59195601852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45596.36693287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45406.45538194444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45215.36112268519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44893.3391550926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44349</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45517</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45351.53083333333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45720.63201388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44977.61744212963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45093</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44602</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45569.36322916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>45671</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>45537.30159722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>45299.56534722223</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>45021</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>45231</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>45231</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45344</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45201.37068287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45539.40148148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45539.43168981482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45478</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>45321.30668981482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>45558</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45321.33197916667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45321.40265046297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45344.38203703704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45518.34582175926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45736.57638888889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45225</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45645</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45243.588125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45539.5587037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44281</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45737.43738425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45363.58723379629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45677</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45525.38068287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44890</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45321</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>44242.55629629629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45253.65384259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45225</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44889.43208333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>44991.62319444444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44922</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>44872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>45173</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>45279</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45693.7193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45799.52755787037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45398.57138888889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45798.35150462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45161</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45799.52506944445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45884.6291087963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45352.64135416667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45597.66034722222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45664.3863425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45194</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45798</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45513.52782407407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45755.28888888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45555.45337962963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>45803.58059027778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>45373.45642361111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>45622.42818287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>45182</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>45803.44761574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>45803.45435185185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45803.45581018519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45887.46721064814</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45803.45840277777</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>45453.58515046296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45803.44173611111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45884.43928240741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>45531.61996527778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45755.29123842593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45623.57366898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>45884.60569444444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45804.63291666667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45300.3930787037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45362.46164351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>45201.42883101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>45884.42332175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45888.50637731481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45888</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45623.57618055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45742.59943287037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45742.60391203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>45888.58789351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44300.60414351852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45810.62579861111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>45888.40212962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45644</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45888.44871527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44882</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>45377.38084490741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>45813.42855324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45653.4371875</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45813.60965277778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44736</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45678.37991898148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>45229.59721064815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45813</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45562.34228009259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45547.35722222222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45813</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45700.53663194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45895</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45895</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45895</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45894.65532407408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45894.6841087963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45894.6880787037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45817.65202546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45337.53060185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45817.63287037037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>45742.60677083334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>45742.60869212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>45895.31238425926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>45743.46100694445</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45033</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45539.43597222222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45002.4266087963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45223</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45641.90386574074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45896.2971412037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45896.64891203704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45896.64556712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45898.29179398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>45275.31835648148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45819.55390046296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45901.45232638889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45544</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45901.303125</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>45412.62952546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45821.60831018518</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45757.29122685185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45902</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45820.52292824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45903.35346064815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>45902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>45085</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45903.32292824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>45905.53444444444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>45905.45695601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45245.48416666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45905.44015046296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45825.30818287037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45825</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45825.33085648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45168</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45908.41019675926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45908.53179398148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45825.51869212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45825.513125</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45825</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45481.37175925926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45909</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45621</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45825.32450231481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>45911.56076388889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         <v>44742.47446759259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45911.45704861111</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>45825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45910.56046296296</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45824.43866898148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45910.59958333334</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45824.56244212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45910.60777777778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45911.56247685185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45230</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45827.64935185185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45826.45706018519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45251</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45915.34190972222</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45915.36021990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45764</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45019</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>45019</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>45915.34418981482</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45205</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45912.43482638889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>45915.37336805555</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>45915.37585648148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45827.65038194445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45827.30564814815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45916.61092592592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45916.2806712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44271</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45421.52717592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45916.61517361111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45917.30706018519</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45831.3905787037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45831.55048611111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45646.64365740741</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45831.56690972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45919.29888888889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45310</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45920.57372685185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45769.389375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45266.58407407408</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45265</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45832.4041087963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45923.5828125</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45923.37561342592</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45922.68672453704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45833</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45635.63310185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45923.45712962963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45923.60047453704</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44621</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45359</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45253.60089120371</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45833</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45833.37924768519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45925.33582175926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>44944.65050925926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45833</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44834</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45666.55527777778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45194.36666666667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45833.34159722222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45833.35479166666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45833</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45925.54184027778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45925.54701388889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45925.32719907408</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45926.47548611111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45679</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45513.53226851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45686.32821759259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>45671</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>45835.3232175926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45835.35462962963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45835.37127314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45686.46539351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45835.54628472222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45155</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45645.58376157407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45931.7471875</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45833.89387731482</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45930.36114583333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45930.491875</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45930.48436342592</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45930.58505787037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45615.33318287037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45930.36337962963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45933.58769675926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45596.36552083334</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45603</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45694.3725</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45531.48523148148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45618</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>44798</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45841.64982638889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>45659</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45106.3487962963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>45840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45840</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45841.40537037037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>45560</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44529</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45264.60055555555</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45937.52008101852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45937.57186342592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>45840</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>45937.46483796297</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>45726.43910879629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>45939.33846064815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>45938.46748842593</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>45181</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45939.34798611111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45770.35403935185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45202</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45259.61207175926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45940.42287037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>45943.6525462963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45939.82416666667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31218,7 +31218,7 @@
         <v>45943.56582175926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>45637.61962962963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>45939.82260416666</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>45943.53743055555</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
         <v>45943.62554398148</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31513,7 +31513,7 @@
         <v>45943.64564814815</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>45940</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>45440.46175925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31684,7 +31684,7 @@
         <v>45124.8894212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>45733.56675925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>45940</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>45940</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>45943.56230324074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45314</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45077</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45588.31988425926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45930</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45944.54912037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>45569</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>45297.50574074074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32383,7 +32383,7 @@
         <v>45539.53831018518</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>45847.63825231481</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45321.33939814815</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45590.37570601852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32621,7 +32621,7 @@
         <v>45628.41666666666</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45245.31895833334</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45225</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>45946.64559027777</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>45849.34428240741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45849.53065972222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>45209</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>45534.40519675926</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33097,7 +33097,7 @@
         <v>45853.65163194444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45852.64936342592</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45855.41770833333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33278,7 +33278,7 @@
         <v>45854.47782407407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45776.29358796297</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>45646</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33449,7 +33449,7 @@
         <v>44680</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         <v>45950.58851851852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33568,7 +33568,7 @@
         <v>45248.37060185185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33625,7 +33625,7 @@
         <v>45693.71571759259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>45862.48969907407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>45862.56081018518</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45953.35728009259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>45952.32971064815</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33920,7 +33920,7 @@
         <v>44796.28063657408</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33977,7 +33977,7 @@
         <v>45952.61993055556</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>45865.62479166667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45952.61695601852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34163,7 +34163,7 @@
         <v>45952.61868055556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
         <v>45953.60881944445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>45358.49988425926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44928.42864583333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>45954</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>45873.54944444444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>45957</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>45957</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44964.72545138889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44515.47277777778</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>45803</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>45958.62193287037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>45958.37493055555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>44347</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>44641</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35033,7 +35033,7 @@
         <v>45874.47474537037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35095,7 +35095,7 @@
         <v>45393</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>45266.32162037037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>45874.43518518518</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45874.45763888889</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35333,7 +35333,7 @@
         <v>44684</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45539.55662037037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>45259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>45672</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44977</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>45569.40421296296</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>45876.69614583333</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>45537.43009259259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>45960.54859953704</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35856,7 +35856,7 @@
         <v>45686.34302083333</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35913,7 +35913,7 @@
         <v>45960.61532407408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35970,7 +35970,7 @@
         <v>45877.55079861111</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>45960.55550925926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36089,7 +36089,7 @@
         <v>45961</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>45961.54652777778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>45877.54670138889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>44897</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36322,7 +36322,7 @@
         <v>45961.57497685185</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>45960.46038194445</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36441,7 +36441,7 @@
         <v>45960.59271990741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36498,7 +36498,7 @@
         <v>44762.63053240741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>45334.37760416666</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36612,7 +36612,7 @@
         <v>45880</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36669,7 +36669,7 @@
         <v>45965.43789351852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36726,7 +36726,7 @@
         <v>45623.59871527777</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36783,7 +36783,7 @@
         <v>45539.57195601852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36840,7 +36840,7 @@
         <v>45965.43679398148</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36897,7 +36897,7 @@
         <v>45881.44997685185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36954,7 +36954,7 @@
         <v>45882.56026620371</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37011,7 +37011,7 @@
         <v>44909</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45967.67859953704</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45881.4490625</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45646.32006944445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45967.41774305556</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45967.68416666667</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45966.37459490741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45883</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45968.49980324074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45971</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45971.32695601852</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45971</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45882.54722222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44529</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45971</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45330</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45971.46777777778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45968.49690972222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45968</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45973.64146990741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45174.59534722222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45565.3477662037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45251</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45972.56847222222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38409,7 +38409,7 @@
         <v>45672</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         <v>45973</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45973.62686342592</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38580,7 +38580,7 @@
         <v>45245.48171296297</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         <v>45972.31445601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38694,7 +38694,7 @@
         <v>45621.61481481481</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38751,7 +38751,7 @@
         <v>45974</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>45884.37982638889</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>45974.53908564815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>45974.70085648148</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>45975.60946759259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>45541.46949074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>45721.41333333333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39150,7 +39150,7 @@
         <v>45167</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39207,7 +39207,7 @@
         <v>45520.62771990741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39269,7 +39269,7 @@
         <v>44840</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>44964.7396875</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39383,7 +39383,7 @@
         <v>45537.34337962963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39440,7 +39440,7 @@
         <v>45257</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39497,7 +39497,7 @@
         <v>45537.34924768518</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39554,7 +39554,7 @@
         <v>45616.67972222222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>45980.59570601852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>45980.62126157407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39725,7 +39725,7 @@
         <v>45981.60518518519</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39782,7 +39782,7 @@
         <v>46025.31461805556</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39839,7 +39839,7 @@
         <v>46025.33549768518</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45985.47201388889</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>45985.38504629629</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40010,7 +40010,7 @@
         <v>46027.59638888889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>46027.62204861111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40124,7 +40124,7 @@
         <v>46027.688125</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40181,7 +40181,7 @@
         <v>45985.54118055556</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>45567.33315972222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40295,7 +40295,7 @@
         <v>45742.32850694445</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40352,7 +40352,7 @@
         <v>44911</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40409,7 +40409,7 @@
         <v>45985.4344212963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         <v>45985.41136574074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>45985.42835648148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40580,7 +40580,7 @@
         <v>46027.64972222222</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40637,7 +40637,7 @@
         <v>45985.4952662037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40694,7 +40694,7 @@
         <v>45985.51872685185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>46025.31342592592</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40808,7 +40808,7 @@
         <v>45985.48290509259</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40865,7 +40865,7 @@
         <v>45985.6084837963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40927,7 +40927,7 @@
         <v>46027.43237268519</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40984,7 +40984,7 @@
         <v>45986.36297453703</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>44746</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>44914</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>44960.57613425926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>45986.32636574074</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>45987.38523148148</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>46029.82166666666</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>45957</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45737.44092592593</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>45986.32357638889</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45397.34418981482</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45986.61253472222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45264.59304398148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45989.49912037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45618</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>46031.3459375</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45988.40418981481</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>46031.5739699074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>45989.61996527778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>45989.62903935185</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>45321.29981481482</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44562</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>45176</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>45992.546875</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>46034.50521990741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>45695.47608796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>45161.3783912037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44461</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44807.32344907407</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44418</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>46034.50962962963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>46035.43505787037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>46036.66188657407</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>45994.31027777777</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>46036.66928240741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45621</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>46036.39015046296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>46037.59884259259</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>46037.60666666667</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43227,7 +43227,7 @@
         <v>45264.60821759259</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>45994.65038194445</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45994.6740162037</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43403,7 +43403,7 @@
         <v>46036.43516203704</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43460,7 +43460,7 @@
         <v>45603.63878472222</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43517,7 +43517,7 @@
         <v>45324</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43574,7 +43574,7 @@
         <v>45588.6134837963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>45999.45813657407</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>46037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45999.46466435185</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>45632</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>45071</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>46042.48768518519</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>46042.49140046296</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>46043.58049768519</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>46043</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>46019</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>46000.61697916667</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>46043.47447916667</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>44939.44358796296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44377,7 +44377,7 @@
         <v>46043</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44434,7 +44434,7 @@
         <v>45411.46914351852</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>45771</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44558,7 +44558,7 @@
         <v>45771.66496527778</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44635,7 +44635,7 @@
         <v>46027.45892361111</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44692,7 +44692,7 @@
         <v>46000</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44749,7 +44749,7 @@
         <v>46042.5277199074</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44806,7 +44806,7 @@
         <v>45755.29549768518</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44863,7 +44863,7 @@
         <v>45622.69833333333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44920,7 +44920,7 @@
         <v>46000.46266203704</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44977,7 +44977,7 @@
         <v>46043.34798611111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>46042.54991898148</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>45265</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         <v>46045.43083333333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45205,7 +45205,7 @@
         <v>45617.32957175926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45262,7 +45262,7 @@
         <v>46003.32678240741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45319,7 +45319,7 @@
         <v>45639</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45376,7 +45376,7 @@
         <v>46030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45433,7 +45433,7 @@
         <v>44519</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45490,7 +45490,7 @@
         <v>45536.37116898148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45547,7 +45547,7 @@
         <v>46027</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45604,7 +45604,7 @@
         <v>46028.61246527778</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         <v>46027</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45723,7 +45723,7 @@
         <v>46002.46839120371</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>46044.56256944445</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>45159</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>46048.45552083333</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45956,7 +45956,7 @@
         <v>46048.40181712963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46013,7 +46013,7 @@
         <v>46044</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46070,7 +46070,7 @@
         <v>46030</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46132,7 +46132,7 @@
         <v>46027</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46189,7 +46189,7 @@
         <v>46049.38959490741</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46251,7 +46251,7 @@
         <v>46049.47159722223</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46308,7 +46308,7 @@
         <v>46049.42783564814</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46365,7 +46365,7 @@
         <v>46049.38321759259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46422,7 +46422,7 @@
         <v>46048.40478009259</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46479,7 +46479,7 @@
         <v>45925.70106481481</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46541,7 +46541,7 @@
         <v>46048.58752314815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46598,7 +46598,7 @@
         <v>46007.64381944444</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46655,7 +46655,7 @@
         <v>46048.59709490741</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46712,7 +46712,7 @@
         <v>45737.40759259259</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46769,7 +46769,7 @@
         <v>46048.59642361111</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46826,7 +46826,7 @@
         <v>46048.42719907407</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>45546.30100694444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46940,7 +46940,7 @@
         <v>45546.3049537037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46997,7 +46997,7 @@
         <v>46050.55347222222</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47054,7 +47054,7 @@
         <v>45267.46137731482</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47111,7 +47111,7 @@
         <v>46027</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47168,7 +47168,7 @@
         <v>46027</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47225,7 +47225,7 @@
         <v>45615.84907407407</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47282,7 +47282,7 @@
         <v>46027</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47339,7 +47339,7 @@
         <v>46050.31758101852</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47396,7 +47396,7 @@
         <v>45107</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47453,7 +47453,7 @@
         <v>45107</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47510,7 +47510,7 @@
         <v>46050.31621527778</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>46009</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45090.476875</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47681,7 +47681,7 @@
         <v>44823</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47738,7 +47738,7 @@
         <v>44813.64364583333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>45958</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47857,7 +47857,7 @@
         <v>46050.46100694445</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47914,7 +47914,7 @@
         <v>46050.34916666667</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         <v>46050.86938657407</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48028,7 +48028,7 @@
         <v>46050.31886574074</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48085,7 +48085,7 @@
         <v>46050.64984953704</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48142,7 +48142,7 @@
         <v>45310</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48199,7 +48199,7 @@
         <v>46033.62140046297</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>46038</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48313,7 +48313,7 @@
         <v>46050.90109953703</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48370,7 +48370,7 @@
         <v>45775.64297453704</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48427,7 +48427,7 @@
         <v>44775.41023148148</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48484,7 +48484,7 @@
         <v>45551.36931712963</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48541,7 +48541,7 @@
         <v>45764.57375</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>45443.35310185186</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
         <v>46052.55123842593</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         <v>45307.58229166667</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48774,7 +48774,7 @@
         <v>46010.61001157408</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48836,7 +48836,7 @@
         <v>46010.61806712963</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48898,7 +48898,7 @@
         <v>46010.64998842592</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>46010.544375</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>46010.36474537037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49079,7 +49079,7 @@
         <v>44424.28652777777</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>46041</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>46036</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>46013.3569212963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49312,7 +49312,7 @@
         <v>45282</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49369,7 +49369,7 @@
         <v>46052.5503587963</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         <v>46055</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         <v>46057.45892361111</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49540,7 +49540,7 @@
         <v>46029</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49597,7 +49597,7 @@
         <v>46057.62119212963</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49659,7 +49659,7 @@
         <v>46033.68228009259</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49716,7 +49716,7 @@
         <v>46033.69337962963</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49773,7 +49773,7 @@
         <v>46056.36570601852</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>46033.69634259259</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>46056.32505787037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>46036</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>45665.65398148148</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50063,7 +50063,7 @@
         <v>46056.34622685185</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50120,7 +50120,7 @@
         <v>46036</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50177,7 +50177,7 @@
         <v>46036</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50234,7 +50234,7 @@
         <v>46033.68042824074</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50296,7 +50296,7 @@
         <v>46033.67858796296</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50358,7 +50358,7 @@
         <v>46044</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50415,7 +50415,7 @@
         <v>44638</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50472,7 +50472,7 @@
         <v>46029</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50529,7 +50529,7 @@
         <v>46033.70020833334</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50586,7 +50586,7 @@
         <v>46057.43663194445</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50643,7 +50643,7 @@
         <v>45769</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50700,7 +50700,7 @@
         <v>45215.3990162037</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50757,7 +50757,7 @@
         <v>46042</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50814,7 +50814,7 @@
         <v>46037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50871,7 +50871,7 @@
         <v>46051.7003125</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50928,7 +50928,7 @@
         <v>44775</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>44775</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>44798</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>46058.35150462963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51161,7 +51161,7 @@
         <v>46059.47275462963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>46052</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>46058.46925925926</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51342,7 +51342,7 @@
         <v>46036</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51399,7 +51399,7 @@
         <v>46037</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51456,7 +51456,7 @@
         <v>46056</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51518,7 +51518,7 @@
         <v>46057.97784722222</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51575,7 +51575,7 @@
         <v>44544.64829861111</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45625.54185185185</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51694,7 +51694,7 @@
         <v>46059.32809027778</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51751,7 +51751,7 @@
         <v>45680.42128472222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51808,7 +51808,7 @@
         <v>45436.45934027778</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51870,7 +51870,7 @@
         <v>45587.71474537037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51927,7 +51927,7 @@
         <v>45618</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51984,7 +51984,7 @@
         <v>45198.580625</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52041,7 +52041,7 @@
         <v>44790.36503472222</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52098,7 +52098,7 @@
         <v>44529</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52175,7 +52175,7 @@
         <v>45302.31002314815</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52232,7 +52232,7 @@
         <v>44818</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52289,7 +52289,7 @@
         <v>45097.36627314815</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52346,7 +52346,7 @@
         <v>45399</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52403,7 +52403,7 @@
         <v>45618</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52460,7 +52460,7 @@
         <v>45558</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52517,7 +52517,7 @@
         <v>45770</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         <v>45772.61135416666</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52641,7 +52641,7 @@
         <v>44953</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52698,7 +52698,7 @@
         <v>45217.5497800926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52755,7 +52755,7 @@
         <v>45321.50072916667</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52812,7 +52812,7 @@
         <v>45518.41333333333</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45518.43670138889</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52926,7 +52926,7 @@
         <v>45072</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52983,7 +52983,7 @@
         <v>44700.40244212963</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53040,7 +53040,7 @@
         <v>45593.41905092593</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53097,7 +53097,7 @@
         <v>45586.42542824074</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53154,7 +53154,7 @@
         <v>44818</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53211,7 +53211,7 @@
         <v>45679.56291666667</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53268,7 +53268,7 @@
         <v>45379</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         <v>45243</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53382,7 +53382,7 @@
         <v>45516.34715277778</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53439,7 +53439,7 @@
         <v>45105</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53496,7 +53496,7 @@
         <v>45168</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53553,7 +53553,7 @@
         <v>45671</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53610,7 +53610,7 @@
         <v>45671</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53667,7 +53667,7 @@
         <v>45672</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53724,7 +53724,7 @@
         <v>45176</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53781,7 +53781,7 @@
         <v>45420.56627314815</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53843,7 +53843,7 @@
         <v>45107.41450231482</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53900,7 +53900,7 @@
         <v>45555.47621527778</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53957,7 +53957,7 @@
         <v>44910.44016203703</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54014,7 +54014,7 @@
         <v>45236.30247685185</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54071,7 +54071,7 @@
         <v>45722.53209490741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54128,7 +54128,7 @@
         <v>45590.36722222222</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54190,7 +54190,7 @@
         <v>45483.40959490741</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54252,7 +54252,7 @@
         <v>45210.64642361111</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54309,7 +54309,7 @@
         <v>45329</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54366,7 +54366,7 @@
         <v>44571.60844907408</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54423,7 +54423,7 @@
         <v>45230.33048611111</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54480,7 +54480,7 @@
         <v>45243.58079861111</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54537,7 +54537,7 @@
         <v>45537.34827546297</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>45426.38958333333</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54651,7 +54651,7 @@
         <v>44939.65450231481</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54708,7 +54708,7 @@
         <v>44728.57715277778</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54770,7 +54770,7 @@
         <v>45575.54640046296</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44818</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>45317</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>44929.44452546296</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>45644.34916666667</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55060,7 +55060,7 @@
         <v>45183.60849537037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55117,7 +55117,7 @@
         <v>45769.43125</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55174,7 +55174,7 @@
         <v>45476.35585648148</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>45642.35099537037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55288,7 +55288,7 @@
         <v>45642.35502314815</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55345,7 +55345,7 @@
         <v>44637</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55402,7 +55402,7 @@
         <v>45119.47708333333</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         <v>45223.37157407407</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55516,7 +55516,7 @@
         <v>44806.30716435185</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55573,7 +55573,7 @@
         <v>44519</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55630,7 +55630,7 @@
         <v>44875</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55687,7 +55687,7 @@
         <v>45646.7196412037</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55749,7 +55749,7 @@
         <v>45646.79003472222</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>45582</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>44841</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45639.64945601852</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55977,7 +55977,7 @@
         <v>45775.45716435185</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56039,7 +56039,7 @@
         <v>45098.64297453704</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56096,7 +56096,7 @@
         <v>44459.65792824074</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56158,7 +56158,7 @@
         <v>45567.38679398148</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56215,7 +56215,7 @@
         <v>45377.41113425926</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56272,7 +56272,7 @@
         <v>45182</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56329,7 +56329,7 @@
         <v>45194</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56391,7 +56391,7 @@
         <v>45187.45252314815</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56448,7 +56448,7 @@
         <v>45440.45778935185</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56505,7 +56505,7 @@
         <v>45072</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56567,7 +56567,7 @@
         <v>45329.35387731482</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>45204.35597222222</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>45516.57633101852</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56743,7 +56743,7 @@
         <v>45751.33146990741</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56800,7 +56800,7 @@
         <v>45194.46690972222</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56857,7 +56857,7 @@
         <v>45349.51662037037</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56914,7 +56914,7 @@
         <v>45245.46958333333</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         <v>44847</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57028,7 +57028,7 @@
         <v>45071.64552083334</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57085,7 +57085,7 @@
         <v>45641.91351851852</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57142,7 +57142,7 @@
         <v>45736.56929398148</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57199,7 +57199,7 @@
         <v>45611.49712962963</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57256,7 +57256,7 @@
         <v>45455.32771990741</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57318,7 +57318,7 @@
         <v>44930</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57375,7 +57375,7 @@
         <v>45371</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57432,7 +57432,7 @@
         <v>44517.52438657408</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57489,7 +57489,7 @@
         <v>45139</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57546,7 +57546,7 @@
         <v>45742.60196759259</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57603,7 +57603,7 @@
         <v>45231.4996875</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57660,7 +57660,7 @@
         <v>45231</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         <v>45534.40212962963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57774,7 +57774,7 @@
         <v>45392.44894675926</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57831,7 +57831,7 @@
         <v>44997.40393518518</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57888,7 +57888,7 @@
         <v>45575.54987268519</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57950,7 +57950,7 @@
         <v>45002.34532407407</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58007,7 +58007,7 @@
         <v>45259</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58064,7 +58064,7 @@
         <v>45625</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58121,7 +58121,7 @@
         <v>45267</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58178,7 +58178,7 @@
         <v>44746.35429398148</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58235,7 +58235,7 @@
         <v>45600.45541666666</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58292,7 +58292,7 @@
         <v>45232</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58349,7 +58349,7 @@
         <v>45635.63774305556</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58406,7 +58406,7 @@
         <v>44377</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58468,7 +58468,7 @@
         <v>45756.34162037037</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58525,7 +58525,7 @@
         <v>44907.52895833334</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58587,7 +58587,7 @@
         <v>45582</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58644,7 +58644,7 @@
         <v>45744</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58701,7 +58701,7 @@
         <v>44909</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58763,7 +58763,7 @@
         <v>45190</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58820,7 +58820,7 @@
         <v>45176.35158564815</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58882,7 +58882,7 @@
         <v>45484.42069444444</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58944,7 +58944,7 @@
         <v>44866</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59001,7 +59001,7 @@
         <v>45769</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59063,7 +59063,7 @@
         <v>45422.40207175926</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59125,7 +59125,7 @@
         <v>45516.60981481482</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59182,7 +59182,7 @@
         <v>45112</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59239,7 +59239,7 @@
         <v>45334.3753125</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59296,7 +59296,7 @@
         <v>45173.62484953704</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59353,7 +59353,7 @@
         <v>45772.28409722223</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59410,7 +59410,7 @@
         <v>45586.59115740741</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59472,7 +59472,7 @@
         <v>45733.57180555556</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59529,7 +59529,7 @@
         <v>45525.275</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         <v>45525.28571759259</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59643,7 +59643,7 @@
         <v>44551.68319444444</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59700,7 +59700,7 @@
         <v>45321</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59757,7 +59757,7 @@
         <v>45365.54094907407</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59814,7 +59814,7 @@
         <v>45622.3167824074</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59871,7 +59871,7 @@
         <v>44804.54327546297</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59928,7 +59928,7 @@
         <v>45686.45730324074</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -59985,7 +59985,7 @@
         <v>45666.3599537037</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60042,7 +60042,7 @@
         <v>44475</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60099,7 +60099,7 @@
         <v>45641.92173611111</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60156,7 +60156,7 @@
         <v>45751</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60213,7 +60213,7 @@
         <v>45771.47921296296</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60270,7 +60270,7 @@
         <v>45112</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60327,7 +60327,7 @@
         <v>45595</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60384,7 +60384,7 @@
         <v>45188</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60441,7 +60441,7 @@
         <v>45560.50650462963</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60498,7 +60498,7 @@
         <v>45666</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60555,7 +60555,7 @@
         <v>45776.31802083334</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60612,7 +60612,7 @@
         <v>45776.39649305555</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         <v>45777</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60731,7 +60731,7 @@
         <v>45776.28881944445</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60788,7 +60788,7 @@
         <v>45764.57119212963</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60850,7 +60850,7 @@
         <v>45776.28671296296</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60907,7 +60907,7 @@
         <v>45776.3999537037</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60964,7 +60964,7 @@
         <v>45779</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61021,7 +61021,7 @@
         <v>45779.56446759259</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61083,7 +61083,7 @@
         <v>45616</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61140,7 +61140,7 @@
         <v>45782.56483796296</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61197,7 +61197,7 @@
         <v>45279</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61254,7 +61254,7 @@
         <v>45505.46570601852</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61311,7 +61311,7 @@
         <v>45782.44003472223</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61368,7 +61368,7 @@
         <v>44799.64663194444</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61430,7 +61430,7 @@
         <v>45784</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61487,7 +61487,7 @@
         <v>45602.67575231481</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61544,7 +61544,7 @@
         <v>45784.99393518519</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61601,7 +61601,7 @@
         <v>45351</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61658,7 +61658,7 @@
         <v>45545.59650462963</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -61715,7 +61715,7 @@
         <v>45784.34387731482</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -61772,7 +61772,7 @@
         <v>45273.66196759259</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -61829,7 +61829,7 @@
         <v>45505.46128472222</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -61886,7 +61886,7 @@
         <v>45582</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -61943,7 +61943,7 @@
         <v>45702</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -62000,7 +62000,7 @@
         <v>45505.45523148148</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62057,7 +62057,7 @@
         <v>45786</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62114,7 +62114,7 @@
         <v>45428.40965277778</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62171,7 +62171,7 @@
         <v>45516.60577546297</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62228,7 +62228,7 @@
         <v>45789.6521875</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62285,7 +62285,7 @@
         <v>45789.62225694444</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62342,7 +62342,7 @@
         <v>45552</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62399,7 +62399,7 @@
         <v>45791.53803240741</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62456,7 +62456,7 @@
         <v>45790.41590277778</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62513,7 +62513,7 @@
         <v>45188.58259259259</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45518.41770833333</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -62627,7 +62627,7 @@
         <v>45740.74896990741</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -62689,7 +62689,7 @@
         <v>45559.67018518518</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -62751,7 +62751,7 @@
         <v>45793.57851851852</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -62813,7 +62813,7 @@
         <v>45793.61202546296</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -62870,7 +62870,7 @@
         <v>45097</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -62932,7 +62932,7 @@
         <v>45097</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45518</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63051,7 +63051,7 @@
         <v>45594.41760416667</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63108,7 +63108,7 @@
         <v>45796.66003472222</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63165,7 +63165,7 @@
         <v>45797.31393518519</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63222,7 +63222,7 @@
         <v>45796.45900462963</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63279,7 +63279,7 @@
         <v>45796.70064814815</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63336,7 +63336,7 @@
         <v>45533</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63393,7 +63393,7 @@
         <v>45796.46270833333</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63450,7 +63450,7 @@
         <v>45796</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45887.49638888889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45835.61137731482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45147</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45874.38917824074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45350</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45476</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>46002.48862268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46002</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44386</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45824.64866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45646.72123842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45947.6665625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44572</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45947.66400462963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45665.5678587963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45534.63258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45033</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45720.55679398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45965.31166666667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45978.51803240741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45986.33803240741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>46036</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>46052</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45534.36650462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44470.56413194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44568</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44414</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45588.32491898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45231</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45194</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45758</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45726.46378472223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45841.40885416666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44911</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44511</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45975.59050925926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45986.55873842593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45531.6003125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45996.62631944445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>46042.54230324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44918</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>46036</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>45772.61609953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>46027.63283564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>46066</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>46052</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45406.48300925926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>45686.32865740741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>45411.46664351852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45784.99015046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45524</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44326</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44792.51143518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44860</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44469.23111111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44495.57832175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44495.57938657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44495.58121527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44350</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44497.97938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44536.66678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44336</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44330.57261574074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44460.61314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44421.30673611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44449</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44620</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44763.44908564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44347</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44763.67344907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44326</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44386</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>44421</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44284</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44749</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44470</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44470</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44435.52408564815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44790.36993055556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44795</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44795.28973379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44377.58011574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44791</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44824</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44459</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44459</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44363</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44322</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44306</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44804.529375</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44414</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44833.32222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44326</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44273</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44391.69834490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>44391.70168981481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>44565.64167824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44733.49084490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44305.44425925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44400.88949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44459.60768518518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44484</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44451.90091435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44874.80803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44571.6652662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44307</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44349</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44477</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44692</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44469.23025462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44414.71174768519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44351</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44300.60704861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44774</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>44838.32039351852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44529</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44799.64722222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44799.64895833333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44862.54098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44638</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44551</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44377.57457175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44845.61091435186</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44533</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44868</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44484.6912037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44839.41791666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44839.42304398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44414</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44544</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44797.46636574074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44489.60423611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44845.60875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44679.38747685185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44679.39083333333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44579.39820601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44732</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44348</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44403.42903935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44537.29784722222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44537</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44795.28498842593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44537.62671296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44789.33553240741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44351</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44748</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44749.55309027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44424</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44511</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44454</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44818</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45321.4805787037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44377</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45425.5419212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45258.56001157407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44573.70490740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44340</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44826.2996875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45672</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45555.5039699074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45393</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44719</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45636.37861111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45432.32908564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45406.45538194444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45596.36693287037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44893.3391550926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45523.59195601852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45215.36112268519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44930</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44930</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44930</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44349</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45351.53083333333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45720.63201388889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45093</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44602</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>45671</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44977.61744212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>45569.36322916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45537.30159722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45299.56534722223</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45021</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45231</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45231</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44819</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45201.37068287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45321.30668981482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45539.40148148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45539.43168981482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45478</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45225</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45677</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45525.38068287037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45645</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45243.588125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45363.58723379629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44281</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45225</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45253.65384259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44889.43208333333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45558</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44991.62319444444</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45173</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45279</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45693.7193287037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45161</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44922</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45398.57138888889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45321.33197916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45321.40265046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45352.64135416667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45344.38203703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45749</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45597.66034722222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>45194</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45513.52782407407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>45518.34582175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45755.28888888889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45736.57638888889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45664.3863425926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45622.42818287037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45182</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45453.58515046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>45623.57366898148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>45300.3930787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45531.61996527778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45243</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>45362.46164351852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45201.42883101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>45539.5587037037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45737.43738425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45742.59943287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45742.60391203704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44300.60414351852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45653.4371875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45562.34228009259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>45547.35722222222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>45817.63287037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44736</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45678.37991898148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45229.59721064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45644</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45884.6291087963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45337.53060185185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45819.55390046296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>45742.60677083334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45742.60869212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45033</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45887.46721064814</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45539.43597222222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45002.4266087963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>45884.43928240741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45819</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>45223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>45641.90386574074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>45884.60569444444</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45821.60831018518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>45820.52292824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45275.31835648148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45884.42332175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45544</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45888.50637731481</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45412.62952546297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45825.30818287037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45825</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45825.33085648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45825.51869212963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45888</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>45757.29122685185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>45825.513125</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45825</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>45888.58789351852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45825.32450231481</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45888.40212962963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45825</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45824.43866898148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45824.56244212963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45888.44871527778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45245.48416666667</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45827.64935185185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45826.45706018519</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45168</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45700.53663194444</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45895</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45895</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45827.65038194445</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>45827.30564814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>45895</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45894.65532407408</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45894.6841087963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45481.37175925926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45894.6880787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45831.3905787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45831.55048611111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45895.31238425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45743.46100694445</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44742.47446759259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>45831.56690972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>45230</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>45832.4041087963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>45833</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>45896.2971412037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>45833</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>45833.37924768519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45251</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45896.64891203704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>45896.64556712963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45898.29179398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>45764</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45019</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>45019</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>45833.34159722222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45833.35479166666</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>45833</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45205</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>45901.45232638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>45901.303125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45835.3232175926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45835.35462962963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45835.37127314815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45835.54628472222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44271</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45421.52717592593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>45902</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>45903.35346064815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>45902</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45833.89387731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>45646.64365740741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45903.32292824074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>45905.53444444444</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45905.45695601852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45310</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45769.389375</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45266.58407407408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45265</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45905.44015046296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45635.63310185185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45908.41019675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45908.53179398148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44621</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45359</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45253.60089120371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45841.64982638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>45909</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>45840</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45840</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45841.40537037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45621</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44944.65050925926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45666.55527777778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>45840</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45911.56076388889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45911.45704861111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45910.56046296296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>45194.36666666667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>45910.59958333334</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>45202</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>45910.60777777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>45911.56247685185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>45733.56675925926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>45679</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45513.53226851852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>45686.32821759259</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>45671</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>45915.34190972222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>45915.36021990741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>45686.46539351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>45155</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>45645.58376157407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45915.34418981482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45847.63825231481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45912.43482638889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45915.37336805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45915.37585648148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45916.61092592592</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45916.2806712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45849.34428240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27169,7 +27169,7 @@
         <v>45849.53065972222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45615.33318287037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45916.61517361111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45917.30706018519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45596.36552083334</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45853.65163194444</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>45852.64936342592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>45855.41770833333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45854.47782407407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45694.3725</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>45776.29358796297</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>45646</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>45531.48523148148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>45919.29888888889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44680</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45920.57372685185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45618</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44798</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45923.5828125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45923.37561342592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45922.68672453704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45659</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45106.3487962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45923.45712962963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45923.60047453704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>45560</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44529</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45264.60055555555</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>45862.48969907407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>45862.56081018518</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45925.33582175926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>45726.43910879629</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>45865.62479166667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45925.54184027778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>45925.54701388889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45925.32719907408</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45926.47548611111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>44911</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45770.35403935185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45259.61207175926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45873.54944444444</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45637.61962962963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45440.46175925926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45124.8894212963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45929</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45931.7471875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45803</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>45930.36114583333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>45930.491875</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>45930.48436342592</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>45314</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>45930.58505787037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>45077</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>45930.36337962963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45874.47474537037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>45393</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>45933.58769675926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45588.31988425926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>45874.43518518518</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>45874.45763888889</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>45569</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>45603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>45297.50574074074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45539.53831018518</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45876.69614583333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
         <v>45321.33939814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>45877.55079861111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>45877.54670138889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31187,7 +31187,7 @@
         <v>45590.37570601852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45245.31895833334</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45225</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45880</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45209</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45534.40519675926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45881.44997685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45882.56026620371</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45881.4490625</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45937.52008101852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45937.57186342592</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>45883</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>45882.54722222222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45937.46483796297</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45248.37060185185</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45939.33846064815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45938.46748842593</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45693.71571759259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>45939.34798611111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44796.28063657408</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45358.49988425926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>45884.37982638889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>45940.42287037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45943.6525462963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45939.82416666667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>45943.56582175926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44928.42864583333</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>45939.82260416666</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>45943.53743055555</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>45943.62554398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>45943.64564814815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>45940</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>45940</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45940</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>45943.56230324074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44964.72545138889</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45930</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45944.54912037037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33398,7 +33398,7 @@
         <v>44515.47277777778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33455,7 +33455,7 @@
         <v>44347</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>44641</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>45266.32162037037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44684</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45539.55662037037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>45628.41666666666</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>45946.64559027777</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45259</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33911,7 +33911,7 @@
         <v>45672</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         <v>44977</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>45569.40421296296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>45537.43009259259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>45686.34302083333</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34201,7 +34201,7 @@
         <v>45950.58851851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>44897</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
         <v>44762.63053240741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34377,7 +34377,7 @@
         <v>45334.37760416666</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>45623.59871527777</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>45953.35728009259</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>45539.57195601852</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>45952.32971064815</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>45952.61993055556</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>45952.61695601852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45952.61868055556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45953.60881944445</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45954</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44909</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45646.32006944445</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45957</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45957</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>45958.62193287037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>45958.37493055555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44529</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45330</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45174.59534722222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45565.3477662037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45251</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45672</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45245.48171296297</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45960.54859953704</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45960.61532407408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>45621.61481481481</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>45960.55550925926</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45961</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45961.54652777778</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45961.57497685185</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>45960.46038194445</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>45960.59271990741</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>45541.46949074074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36328,7 +36328,7 @@
         <v>45721.41333333333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>45167</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>45965.43789351852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36499,7 +36499,7 @@
         <v>45520.62771990741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44964.7396875</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>45537.34337962963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>45965.43679398148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>45257</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45537.34924768518</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45616.67972222222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45967.67859953704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>45967.41774305556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45967.68416666667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45966.37459490741</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>45968.49980324074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>45971</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45971.32695601852</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45971</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>45971</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>45971.46777777778</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45968.49690972222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>45968</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>45973.64146990741</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         <v>45972.56847222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37763,7 +37763,7 @@
         <v>45567.33315972222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45742.32850694445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>45973</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45973.62686342592</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45972.31445601852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>45974</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45974.53908564815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45974.70085648148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45975.60946759259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>44914</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>44960.57613425926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>45737.44092592593</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>45397.34418981482</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38561,7 +38561,7 @@
         <v>45264.59304398148</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38618,7 +38618,7 @@
         <v>45980.59570601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45980.62126157407</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45618</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45981.60518518519</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45321.29981481482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45985.47201388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45985.38504629629</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44562</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45985.54118055556</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44911</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45985.4344212963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45985.41136574074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45176</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45985.42835648148</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45985.4952662037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45985.51872685185</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45985.48290509259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45985.6084837963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39649,7 +39649,7 @@
         <v>45986.36297453703</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39706,7 +39706,7 @@
         <v>45695.47608796296</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         <v>45161.3783912037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45986.32636574074</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44461</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45987.38523148148</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         <v>45957</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>44807.32344907407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44418</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45986.32357638889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45986.61253472222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45989.49912037037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45988.40418981481</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>45989.61996527778</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>45989.62903935185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45621</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45264.60821759259</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45992.546875</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>46034.50521990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45603.63878472222</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40809,7 +40809,7 @@
         <v>45324</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         <v>46034.50962962963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40923,7 +40923,7 @@
         <v>46035.43505787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40980,7 +40980,7 @@
         <v>45994.31027777777</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45588.6134837963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41099,7 +41099,7 @@
         <v>46036.39015046296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41156,7 +41156,7 @@
         <v>46037.59884259259</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41213,7 +41213,7 @@
         <v>46037.60666666667</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41270,7 +41270,7 @@
         <v>45994.65038194445</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41327,7 +41327,7 @@
         <v>45994.6740162037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>46036.43516203704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45632</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45071</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>45999.45813657407</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>46037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44939.44358796296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41731,7 +41731,7 @@
         <v>45999.46466435185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41788,7 +41788,7 @@
         <v>45411.46914351852</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45771</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45771.66496527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41989,7 +41989,7 @@
         <v>46042.48768518519</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42046,7 +42046,7 @@
         <v>45755.29549768518</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42103,7 +42103,7 @@
         <v>46042.49140046296</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42160,7 +42160,7 @@
         <v>45622.69833333333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42217,7 +42217,7 @@
         <v>46043.58049768519</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42274,7 +42274,7 @@
         <v>46043</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42331,7 +42331,7 @@
         <v>46000.61697916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42388,7 +42388,7 @@
         <v>46043.47447916667</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42445,7 +42445,7 @@
         <v>46043</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42502,7 +42502,7 @@
         <v>45265</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42559,7 +42559,7 @@
         <v>45617.32957175926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42616,7 +42616,7 @@
         <v>45639</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42673,7 +42673,7 @@
         <v>46027.45892361111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42730,7 +42730,7 @@
         <v>46000</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         <v>46042.5277199074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42844,7 +42844,7 @@
         <v>44519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42901,7 +42901,7 @@
         <v>45536.37116898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42958,7 +42958,7 @@
         <v>46000.46266203704</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43015,7 +43015,7 @@
         <v>46043.34798611111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43072,7 +43072,7 @@
         <v>46042.54991898148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43129,7 +43129,7 @@
         <v>46045.43083333333</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         <v>46003.32678240741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43243,7 +43243,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>46002.46839120371</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>45737.40759259259</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>46048.45552083333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>46048.40181712963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>46044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43590,7 +43590,7 @@
         <v>45546.30100694444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45546.3049537037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43704,7 +43704,7 @@
         <v>46049.47159722223</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45267.46137731482</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45615.84907407407</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>46048.40478009259</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>45107</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>45107</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>45925.70106481481</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>45090.476875</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>46007.64381944444</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>44823</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>46048.59709490741</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44813.64364583333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>46048.42719907407</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45310</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45775.64297453704</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>46050.55347222222</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44775.41023148148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>45551.36931712963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>45764.57375</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45443.35310185186</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45307.58229166667</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>46050.31758101852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>46050.31621527778</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>46009</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>46050.46100694445</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>46050.34916666667</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>46050.31886574074</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>46033.62140046297</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44424.28652777777</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>46052.55123842593</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>45282</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>46010.61001157408</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>46010.61806712963</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45615,7 +45615,7 @@
         <v>46010.64998842592</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45677,7 +45677,7 @@
         <v>46010.544375</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         <v>46010.36474537037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45796,7 +45796,7 @@
         <v>46041</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45853,7 +45853,7 @@
         <v>46036</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         <v>45665.65398148148</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         <v>46013.3569212963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>44638</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>46052.5503587963</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>46033.68228009259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>46033.69337962963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>45215.3990162037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>46056.36570601852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>46033.69634259259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>46056.32505787037</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>46036</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>46036</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46599,7 +46599,7 @@
         <v>46036</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>44775</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>44775</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>46033.68042824074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46889,7 +46889,7 @@
         <v>46033.67858796296</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>46044</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>46033.70020833334</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         <v>46042</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47122,7 +47122,7 @@
         <v>44544.64829861111</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         <v>45625.54185185185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47241,7 +47241,7 @@
         <v>46052</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47303,7 +47303,7 @@
         <v>45680.42128472222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47360,7 +47360,7 @@
         <v>46036</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47417,7 +47417,7 @@
         <v>45436.45934027778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47479,7 +47479,7 @@
         <v>46037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47536,7 +47536,7 @@
         <v>45587.71474537037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47593,7 +47593,7 @@
         <v>46057.97784722222</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47650,7 +47650,7 @@
         <v>45618</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47707,7 +47707,7 @@
         <v>46036</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47764,7 +47764,7 @@
         <v>46057</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         <v>46062.41719907407</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47883,7 +47883,7 @@
         <v>46063.37831018519</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47940,7 +47940,7 @@
         <v>45198.580625</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         <v>46036</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>44790.36503472222</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48111,7 +48111,7 @@
         <v>45958</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>44529</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48245,7 +48245,7 @@
         <v>46050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48302,7 +48302,7 @@
         <v>45302.31002314815</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48359,7 +48359,7 @@
         <v>44818</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48416,7 +48416,7 @@
         <v>46062.66341435185</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48473,7 +48473,7 @@
         <v>46049</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48535,7 +48535,7 @@
         <v>45097.36627314815</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48592,7 +48592,7 @@
         <v>46062.39954861111</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>46063.65449074074</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>46037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         <v>46019</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48820,7 +48820,7 @@
         <v>45399</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48877,7 +48877,7 @@
         <v>45618</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48934,7 +48934,7 @@
         <v>46049</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48991,7 +48991,7 @@
         <v>46049</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49048,7 +49048,7 @@
         <v>46064.33961805556</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49105,7 +49105,7 @@
         <v>45558</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49162,7 +49162,7 @@
         <v>45770</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49224,7 +49224,7 @@
         <v>46044</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49281,7 +49281,7 @@
         <v>46065.01725694445</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
         <v>46048</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49395,7 +49395,7 @@
         <v>46064.39819444445</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
         <v>45772.61135416666</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49514,7 +49514,7 @@
         <v>46056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>46065.60702546296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49633,7 +49633,7 @@
         <v>46064.32984953704</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49690,7 +49690,7 @@
         <v>46065.62890046297</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49747,7 +49747,7 @@
         <v>46048</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49804,7 +49804,7 @@
         <v>46066.65887731482</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         <v>44953</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49918,7 +49918,7 @@
         <v>46065</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49980,7 +49980,7 @@
         <v>46025.31461805556</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50037,7 +50037,7 @@
         <v>45217.5497800926</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50094,7 +50094,7 @@
         <v>46027</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>46027.62204861111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50208,7 +50208,7 @@
         <v>46027</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>46058</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>46066.38585648148</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>46027.64972222222</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45321.50072916667</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>45518.41333333333</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50555,7 +50555,7 @@
         <v>45518.43670138889</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50612,7 +50612,7 @@
         <v>46058</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50674,7 +50674,7 @@
         <v>46062.59186342593</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50731,7 +50731,7 @@
         <v>46027</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>46066.45186342593</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>46025.31342592592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50959,7 +50959,7 @@
         <v>46025.33549768518</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51016,7 +51016,7 @@
         <v>44700.40244212963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51073,7 +51073,7 @@
         <v>46027.43237268519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51130,7 +51130,7 @@
         <v>46027</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51187,7 +51187,7 @@
         <v>46027.59638888889</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51244,7 +51244,7 @@
         <v>46027.688125</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51301,7 +51301,7 @@
         <v>46057</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51358,7 +51358,7 @@
         <v>46027</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51415,7 +51415,7 @@
         <v>45593.41905092593</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51472,7 +51472,7 @@
         <v>46066</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51529,7 +51529,7 @@
         <v>46027</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         <v>46055</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         <v>45586.42542824074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51700,7 +51700,7 @@
         <v>44818</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51757,7 +51757,7 @@
         <v>46070.81976851852</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>46071.63194444445</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51876,7 +51876,7 @@
         <v>45679.56291666667</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>46059</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>46038</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52047,7 +52047,7 @@
         <v>46070.63423611111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52104,7 +52104,7 @@
         <v>45379</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52161,7 +52161,7 @@
         <v>45243</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52218,7 +52218,7 @@
         <v>46028.61246527778</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52280,7 +52280,7 @@
         <v>46070.58440972222</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52337,7 +52337,7 @@
         <v>45516.34715277778</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52394,7 +52394,7 @@
         <v>46070.58225694444</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45105</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>46029</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>46029</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>46070.8153587963</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45168</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>45671</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>45671</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>45672</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>46070.57946759259</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>46071.64008101852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53031,7 +53031,7 @@
         <v>45176</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53088,7 +53088,7 @@
         <v>46073.56826388889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>45420.56627314815</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53212,7 +53212,7 @@
         <v>46029.82166666666</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53269,7 +53269,7 @@
         <v>45107.41450231482</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53326,7 +53326,7 @@
         <v>45555.47621527778</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53383,7 +53383,7 @@
         <v>44910.44016203703</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53440,7 +53440,7 @@
         <v>46073.53613425926</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53502,7 +53502,7 @@
         <v>46062</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53559,7 +53559,7 @@
         <v>46050</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53616,7 +53616,7 @@
         <v>45769</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53673,7 +53673,7 @@
         <v>46051</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53730,7 +53730,7 @@
         <v>46069</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53787,7 +53787,7 @@
         <v>46065</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
         <v>46071.92429398148</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         <v>46073.55655092592</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53963,7 +53963,7 @@
         <v>46073.58342592593</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54025,7 +54025,7 @@
         <v>46050</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45236.30247685185</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>46057</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54196,7 +54196,7 @@
         <v>46056</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54253,7 +54253,7 @@
         <v>46059</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54310,7 +54310,7 @@
         <v>45722.53209490741</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54367,7 +54367,7 @@
         <v>46073.54436342593</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54429,7 +54429,7 @@
         <v>46031.5739699074</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45590.36722222222</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>46073.55990740741</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54610,7 +54610,7 @@
         <v>46073.56400462963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54672,7 +54672,7 @@
         <v>46031.3459375</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54729,7 +54729,7 @@
         <v>46030</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54791,7 +54791,7 @@
         <v>46072.94371527778</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54853,7 +54853,7 @@
         <v>46072.94550925926</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54915,7 +54915,7 @@
         <v>46030</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54972,7 +54972,7 @@
         <v>45483.40959490741</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55034,7 +55034,7 @@
         <v>46062</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55091,7 +55091,7 @@
         <v>45611.49712962963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55148,7 +55148,7 @@
         <v>45210.64642361111</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55205,7 +55205,7 @@
         <v>45329</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55262,7 +55262,7 @@
         <v>44571.60844907408</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55319,7 +55319,7 @@
         <v>45230.33048611111</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55376,7 +55376,7 @@
         <v>45243.58079861111</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55433,7 +55433,7 @@
         <v>45537.34827546297</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55490,7 +55490,7 @@
         <v>45426.38958333333</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55547,7 +55547,7 @@
         <v>44939.65450231481</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55604,7 +55604,7 @@
         <v>44728.57715277778</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         <v>45575.54640046296</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55728,7 +55728,7 @@
         <v>44818</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55785,7 +55785,7 @@
         <v>45317</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55842,7 +55842,7 @@
         <v>44929.44452546296</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55899,7 +55899,7 @@
         <v>45644.34916666667</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55956,7 +55956,7 @@
         <v>45183.60849537037</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56013,7 +56013,7 @@
         <v>45769.43125</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45476.35585648148</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56127,7 +56127,7 @@
         <v>45642.35099537037</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56184,7 +56184,7 @@
         <v>45642.35502314815</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56241,7 +56241,7 @@
         <v>44637</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56298,7 +56298,7 @@
         <v>45119.47708333333</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56355,7 +56355,7 @@
         <v>45223.37157407407</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56412,7 +56412,7 @@
         <v>44806.30716435185</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56469,7 +56469,7 @@
         <v>44519</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56526,7 +56526,7 @@
         <v>44875</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56583,7 +56583,7 @@
         <v>45646.7196412037</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56645,7 +56645,7 @@
         <v>45646.79003472222</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56702,7 +56702,7 @@
         <v>45582</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>44841</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45639.64945601852</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56873,7 +56873,7 @@
         <v>45775.45716435185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56935,7 +56935,7 @@
         <v>45098.64297453704</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56992,7 +56992,7 @@
         <v>44459.65792824074</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57054,7 +57054,7 @@
         <v>45567.38679398148</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45377.41113425926</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57168,7 +57168,7 @@
         <v>45182</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57225,7 +57225,7 @@
         <v>45194</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57287,7 +57287,7 @@
         <v>45187.45252314815</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57344,7 +57344,7 @@
         <v>45440.45778935185</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57401,7 +57401,7 @@
         <v>45072</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57463,7 +57463,7 @@
         <v>45329.35387731482</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57520,7 +57520,7 @@
         <v>45204.35597222222</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57577,7 +57577,7 @@
         <v>45516.57633101852</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57639,7 +57639,7 @@
         <v>45751.33146990741</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57696,7 +57696,7 @@
         <v>45194.46690972222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57753,7 +57753,7 @@
         <v>45349.51662037037</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57810,7 +57810,7 @@
         <v>45245.46958333333</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44847</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57924,7 +57924,7 @@
         <v>45071.64552083334</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57981,7 +57981,7 @@
         <v>45641.91351851852</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58038,7 +58038,7 @@
         <v>45736.56929398148</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58095,7 +58095,7 @@
         <v>45455.32771990741</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58157,7 +58157,7 @@
         <v>44930</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58214,7 +58214,7 @@
         <v>45371</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58271,7 +58271,7 @@
         <v>44517.52438657408</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58328,7 +58328,7 @@
         <v>45139</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58385,7 +58385,7 @@
         <v>45742.60196759259</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58442,7 +58442,7 @@
         <v>45231.4996875</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58499,7 +58499,7 @@
         <v>45231</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58556,7 +58556,7 @@
         <v>45534.40212962963</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58613,7 +58613,7 @@
         <v>45392.44894675926</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58670,7 +58670,7 @@
         <v>44997.40393518518</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>45575.54987268519</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58789,7 +58789,7 @@
         <v>45002.34532407407</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>45259</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58903,7 +58903,7 @@
         <v>45625</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58960,7 +58960,7 @@
         <v>45267</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59017,7 +59017,7 @@
         <v>44746.35429398148</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59074,7 +59074,7 @@
         <v>45600.45541666666</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45232</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59188,7 +59188,7 @@
         <v>45635.63774305556</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59245,7 +59245,7 @@
         <v>44377</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59307,7 +59307,7 @@
         <v>45756.34162037037</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59364,7 +59364,7 @@
         <v>44907.52895833334</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45582</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45744</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>44909</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59602,7 +59602,7 @@
         <v>45190</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45176.35158564815</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59721,7 +59721,7 @@
         <v>45484.42069444444</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59783,7 +59783,7 @@
         <v>44866</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45769</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45422.40207175926</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45516.60981481482</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         <v>45112</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60078,7 +60078,7 @@
         <v>45334.3753125</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60135,7 +60135,7 @@
         <v>45173.62484953704</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60192,7 +60192,7 @@
         <v>45772.28409722223</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60249,7 +60249,7 @@
         <v>45586.59115740741</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60311,7 +60311,7 @@
         <v>45733.57180555556</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60368,7 +60368,7 @@
         <v>45525.275</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60425,7 +60425,7 @@
         <v>45525.28571759259</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60482,7 +60482,7 @@
         <v>44551.68319444444</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60539,7 +60539,7 @@
         <v>45321</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60596,7 +60596,7 @@
         <v>45365.54094907407</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60653,7 +60653,7 @@
         <v>45622.3167824074</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60710,7 +60710,7 @@
         <v>44804.54327546297</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60767,7 +60767,7 @@
         <v>45686.45730324074</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60824,7 +60824,7 @@
         <v>45666.3599537037</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60881,7 +60881,7 @@
         <v>44475</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60938,7 +60938,7 @@
         <v>45641.92173611111</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60995,7 +60995,7 @@
         <v>45751</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61052,7 +61052,7 @@
         <v>45771.47921296296</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61109,7 +61109,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61166,7 +61166,7 @@
         <v>45595</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61223,7 +61223,7 @@
         <v>45188</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61280,7 +61280,7 @@
         <v>45560.50650462963</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61337,7 +61337,7 @@
         <v>45666</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61394,7 +61394,7 @@
         <v>45776.31802083334</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61451,7 +61451,7 @@
         <v>45776.39649305555</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61508,7 +61508,7 @@
         <v>45777</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61570,7 +61570,7 @@
         <v>45776.28881944445</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61627,7 +61627,7 @@
         <v>45764.57119212963</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61689,7 +61689,7 @@
         <v>45776.28671296296</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         <v>45776.3999537037</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -61803,7 +61803,7 @@
         <v>45779</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -61860,7 +61860,7 @@
         <v>45779.56446759259</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -61922,7 +61922,7 @@
         <v>45616</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -61979,7 +61979,7 @@
         <v>45782.56483796296</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -62036,7 +62036,7 @@
         <v>45279</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62093,7 +62093,7 @@
         <v>45505.46570601852</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62150,7 +62150,7 @@
         <v>45782.44003472223</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62207,7 +62207,7 @@
         <v>44799.64663194444</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62269,7 +62269,7 @@
         <v>45784</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62326,7 +62326,7 @@
         <v>45602.67575231481</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62383,7 +62383,7 @@
         <v>45784.99393518519</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62440,7 +62440,7 @@
         <v>45351</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62497,7 +62497,7 @@
         <v>45545.59650462963</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62554,7 +62554,7 @@
         <v>45784.34387731482</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62611,7 +62611,7 @@
         <v>45273.66196759259</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -62668,7 +62668,7 @@
         <v>45505.46128472222</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -62725,7 +62725,7 @@
         <v>45582</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -62782,7 +62782,7 @@
         <v>45702</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -62839,7 +62839,7 @@
         <v>45505.45523148148</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -62896,7 +62896,7 @@
         <v>45786</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -62953,7 +62953,7 @@
         <v>45428.40965277778</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -63010,7 +63010,7 @@
         <v>45516.60577546297</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63067,7 +63067,7 @@
         <v>45789.6521875</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63124,7 +63124,7 @@
         <v>45789.62225694444</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63181,7 +63181,7 @@
         <v>45552</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63238,7 +63238,7 @@
         <v>45791.53803240741</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63295,7 +63295,7 @@
         <v>45790.41590277778</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63352,7 +63352,7 @@
         <v>45188.58259259259</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63409,7 +63409,7 @@
         <v>45518.41770833333</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63466,7 +63466,7 @@
         <v>45740.74896990741</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -63528,7 +63528,7 @@
         <v>45559.67018518518</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -63590,7 +63590,7 @@
         <v>45793.57851851852</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -63652,7 +63652,7 @@
         <v>45793.61202546296</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -63709,7 +63709,7 @@
         <v>45097</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -63771,7 +63771,7 @@
         <v>45097</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -63833,7 +63833,7 @@
         <v>45518</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -63890,7 +63890,7 @@
         <v>45594.41760416667</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -63947,7 +63947,7 @@
         <v>45796.66003472222</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -64004,7 +64004,7 @@
         <v>45797.31393518519</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -64061,7 +64061,7 @@
         <v>45796.45900462963</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -64118,7 +64118,7 @@
         <v>45796.70064814815</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -64175,7 +64175,7 @@
         <v>45533</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -64232,7 +64232,7 @@
         <v>45796.46270833333</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -64289,7 +64289,7 @@
         <v>45796</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -64346,7 +64346,7 @@
         <v>45799.52755787037</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -64403,7 +64403,7 @@
         <v>45798.35150462963</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -64465,7 +64465,7 @@
         <v>45799.52506944445</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -64522,7 +64522,7 @@
         <v>45798</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -64579,7 +64579,7 @@
         <v>45799</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -64636,7 +64636,7 @@
         <v>45555.45337962963</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -64693,7 +64693,7 @@
         <v>45803.58059027778</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -64750,7 +64750,7 @@
         <v>45373.45642361111</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -64807,7 +64807,7 @@
         <v>45803.44761574074</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -64869,7 +64869,7 @@
         <v>45803.45435185185</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -64931,7 +64931,7 @@
         <v>45803.45581018519</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -64993,7 +64993,7 @@
         <v>45803.45840277777</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -65055,7 +65055,7 @@
         <v>45803.44173611111</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -65117,7 +65117,7 @@
         <v>45755.29123842593</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -65174,7 +65174,7 @@
         <v>45804.63291666667</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -65231,7 +65231,7 @@
         <v>45623.57618055555</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -65288,7 +65288,7 @@
         <v>45810.62579861111</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -65345,7 +65345,7 @@
         <v>45377.38084490741</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -65407,7 +65407,7 @@
         <v>45813.42855324074</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -65469,7 +65469,7 @@
         <v>45813.60965277778</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -65531,7 +65531,7 @@
         <v>45813</v>
       </c>
       <c r="C1086" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -65588,7 +65588,7 @@
         <v>45813</v>
       </c>
       <c r="C1087" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -65645,7 +65645,7 @@
         <v>45817.65202546296</v>
       </c>
       <c r="C1088" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45887.49638888889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45835.61137731482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45147</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45874.38917824074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44874</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45350</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45476</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>46002.48862268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46002</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44386</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45824.64866898148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45646.72123842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45947.6665625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44572</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45947.66400462963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45665.5678587963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45534.63258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45033</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45720.55679398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45965.31166666667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45978.51803240741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45986.33803240741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>46036</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>46052</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45534.36650462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44470.56413194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44568</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44414</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45517</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45588.32491898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45231</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45194</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45758</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45726.46378472223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45841.40885416666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44911</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44511</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45975.59050925926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45986.55873842593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45531.6003125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45996.62631944445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>46042.54230324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44918</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>46036</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>45772.61609953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>46027.63283564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>46066</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>46052</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45406.48300925926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>45686.32865740741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>45411.46664351852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45784.99015046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45524</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44326</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44792.51143518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44860</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44469.23111111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44459</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44495.57832175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44495.57938657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44495.58121527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44350</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44497.97938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44536.66678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44336</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44330.57261574074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44460.61314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44421.30673611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44449</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44620</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44763.44908564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44347</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44763.67344907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44326</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44386</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>44421</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44284</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44749</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44470</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44470</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44435.52408564815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44790.36993055556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44795</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44795.28973379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44377.58011574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44791</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44824</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44459</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44459</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44363</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44322</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44306</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44804.529375</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44414</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44833.32222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44326</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44273</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44391.69834490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>44391.70168981481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>44565.64167824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44733.49084490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44305.44425925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44400.88949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44459.60768518518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44484</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44451.90091435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44874.80803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44571.6652662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44307</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44349</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44477</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44692</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44469.23025462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44414.71174768519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44351</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44300.60704861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44774</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>44838.32039351852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44529</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44799.64722222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44799.64895833333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44862.54098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44638</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44551</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44377.57457175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44845.61091435186</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44533</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44868</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44484.6912037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44839.41791666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44839.42304398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44414</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44544</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44797.46636574074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44552</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44489.60423611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44845.60875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44679.38747685185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44679.39083333333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44579.39820601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44732</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44348</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44403.42903935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44537.29784722222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44537</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44795.28498842593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44537.62671296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44789.33553240741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44351</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44748</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44749.55309027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44424</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44511</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44454</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44818</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45321.4805787037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44377</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45425.5419212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45258.56001157407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44573.70490740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44340</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44826.2996875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45672</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45555.5039699074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45393</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44719</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45636.37861111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45432.32908564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45406.45538194444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45596.36693287037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44893.3391550926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45523.59195601852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45215.36112268519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44930</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44930</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44930</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44349</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45351.53083333333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45720.63201388889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45093</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44602</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>45671</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44977.61744212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>45569.36322916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45537.30159722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45299.56534722223</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45021</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45231</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45231</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44819</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45201.37068287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45321.30668981482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45539.40148148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45539.43168981482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45478</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45225</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45677</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45525.38068287037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45645</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45243.588125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45363.58723379629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44281</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45321</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45225</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45253.65384259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44889.43208333333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45558</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44872</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44991.62319444444</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45173</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45279</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45693.7193287037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45161</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44922</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45398.57138888889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45321.33197916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45321.40265046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45352.64135416667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45344.38203703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45749</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45597.66034722222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>45194</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45513.52782407407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>45518.34582175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45755.28888888889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45736.57638888889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45664.3863425926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45622.42818287037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45182</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45453.58515046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>45623.57366898148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>45300.3930787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45531.61996527778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45243</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>45362.46164351852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45201.42883101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>45539.5587037037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45737.43738425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45742.59943287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45742.60391203704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44300.60414351852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45653.4371875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45562.34228009259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>45547.35722222222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>45817.63287037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44736</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45678.37991898148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45229.59721064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45644</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45884.6291087963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45337.53060185185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45819.55390046296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>45742.60677083334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45742.60869212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45033</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45887.46721064814</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45539.43597222222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45002.4266087963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>45884.43928240741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45819</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>45223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>45641.90386574074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>45884.60569444444</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45821.60831018518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>45820.52292824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45275.31835648148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45884.42332175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45544</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45888.50637731481</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45412.62952546297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45825.30818287037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45825</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45825.33085648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45825.51869212963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45888</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>45757.29122685185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>45825.513125</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45825</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>45888.58789351852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45825.32450231481</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45888.40212962963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45825</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45824.43866898148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45824.56244212963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45888.44871527778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45245.48416666667</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45827.64935185185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45826.45706018519</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45168</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45700.53663194444</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45895</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45895</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45827.65038194445</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>45827.30564814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>45895</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45894.65532407408</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45894.6841087963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45481.37175925926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45894.6880787037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45831.3905787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45831.55048611111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45895.31238425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45743.46100694445</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44742.47446759259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>45831.56690972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>45230</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>45832.4041087963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>45833</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>45896.2971412037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>45833</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>45833.37924768519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45251</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45896.64891203704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>45896.64556712963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45898.29179398148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>45764</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45019</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>45019</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>45833.34159722222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45833.35479166666</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>45833</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45205</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>45901.45232638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>45901.303125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45835.3232175926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45835.35462962963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45835.37127314815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45835.54628472222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44271</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45421.52717592593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>45902</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>45903.35346064815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>45902</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>45833.89387731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>45646.64365740741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45903.32292824074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>45905.53444444444</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45905.45695601852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45310</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45769.389375</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45266.58407407408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45265</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45905.44015046296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45635.63310185185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45908.41019675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45908.53179398148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44621</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45359</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45253.60089120371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45841.64982638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>45909</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>45840</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>45840</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45841.40537037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45621</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44944.65050925926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45666.55527777778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>45840</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45911.56076388889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45911.45704861111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45910.56046296296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>45194.36666666667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>45910.59958333334</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>45202</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>45910.60777777778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>45911.56247685185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>45733.56675925926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>45679</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45513.53226851852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>45686.32821759259</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>45671</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>45915.34190972222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>45915.36021990741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>45686.46539351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>45155</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>45645.58376157407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45915.34418981482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45847.63825231481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45912.43482638889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45915.37336805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45915.37585648148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45916.61092592592</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45916.2806712963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45849.34428240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27169,7 +27169,7 @@
         <v>45849.53065972222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45615.33318287037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45916.61517361111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45917.30706018519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45596.36552083334</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45853.65163194444</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>45852.64936342592</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>45855.41770833333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45854.47782407407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45694.3725</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>45776.29358796297</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>45646</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>45531.48523148148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>45919.29888888889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44680</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45920.57372685185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45618</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44798</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45923.5828125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45923.37561342592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45922.68672453704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45659</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45106.3487962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45923.45712962963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45923.60047453704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>45560</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44529</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45264.60055555555</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>45862.48969907407</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>45862.56081018518</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45925.33582175926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>45726.43910879629</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>45865.62479166667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45181</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45925.54184027778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>45925.54701388889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45925.32719907408</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45926.47548611111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>44911</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45770.35403935185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45259.61207175926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45873.54944444444</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45637.61962962963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45440.46175925926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45124.8894212963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45929</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45931.7471875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45803</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>45930.36114583333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>45930.491875</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>45930.48436342592</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>45314</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>45930.58505787037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>45077</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>45930.36337962963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45874.47474537037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>45393</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>45933.58769675926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45588.31988425926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>45874.43518518518</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>45874.45763888889</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>45569</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>45603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>45297.50574074074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45539.53831018518</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45876.69614583333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
         <v>45321.33939814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31073,7 +31073,7 @@
         <v>45877.55079861111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>45877.54670138889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31187,7 +31187,7 @@
         <v>45590.37570601852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>45245.31895833334</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45225</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45880</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45209</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45534.40519675926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45881.44997685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45882.56026620371</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45881.4490625</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45937.52008101852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45937.57186342592</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>45883</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>45882.54722222222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45937.46483796297</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45248.37060185185</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45939.33846064815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45938.46748842593</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45693.71571759259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>45939.34798611111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32295,7 +32295,7 @@
         <v>44796.28063657408</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45358.49988425926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>45884.37982638889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>45940.42287037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45943.6525462963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45939.82416666667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>45943.56582175926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44928.42864583333</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>45939.82260416666</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>45943.53743055555</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>45943.62554398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>45943.64564814815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>45940</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>45940</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45940</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>45943.56230324074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44964.72545138889</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45930</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45944.54912037037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33398,7 +33398,7 @@
         <v>44515.47277777778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33455,7 +33455,7 @@
         <v>44347</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>44641</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>45266.32162037037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44684</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45539.55662037037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>45628.41666666666</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>45946.64559027777</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>45259</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33911,7 +33911,7 @@
         <v>45672</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         <v>44977</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>45569.40421296296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>45537.43009259259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>45686.34302083333</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34201,7 +34201,7 @@
         <v>45950.58851851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>44897</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
         <v>44762.63053240741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34377,7 +34377,7 @@
         <v>45334.37760416666</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>45623.59871527777</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>45953.35728009259</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>45539.57195601852</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>45952.32971064815</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>45952.61993055556</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>45952.61695601852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45952.61868055556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45953.60881944445</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45954</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>44909</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45646.32006944445</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45957</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45957</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
         <v>45958.62193287037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>45958.37493055555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44529</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45330</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45174.59534722222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45565.3477662037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45251</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45672</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45245.48171296297</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45960.54859953704</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45960.61532407408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>45621.61481481481</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>45960.55550925926</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45961</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45961.54652777778</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45961.57497685185</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>45960.46038194445</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>45960.59271990741</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>45541.46949074074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36328,7 +36328,7 @@
         <v>45721.41333333333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>45167</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>45965.43789351852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36499,7 +36499,7 @@
         <v>45520.62771990741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44840</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44964.7396875</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>45537.34337962963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>45965.43679398148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>45257</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45537.34924768518</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45616.67972222222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45967.67859953704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>45967.41774305556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45967.68416666667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45966.37459490741</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>45968.49980324074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>45971</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45971.32695601852</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45971</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>45971</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>45971.46777777778</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45968.49690972222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>45968</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>45973.64146990741</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         <v>45972.56847222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37763,7 +37763,7 @@
         <v>45567.33315972222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45742.32850694445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>45973</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45973.62686342592</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45972.31445601852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>45974</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45974.53908564815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45974.70085648148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45975.60946759259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>44914</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>44960.57613425926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>45737.44092592593</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>45397.34418981482</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38561,7 +38561,7 @@
         <v>45264.59304398148</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38618,7 +38618,7 @@
         <v>45980.59570601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45980.62126157407</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45618</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45981.60518518519</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45321.29981481482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45985.47201388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45985.38504629629</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>44562</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45985.54118055556</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44911</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45985.4344212963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45985.41136574074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>45176</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45985.42835648148</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         <v>45985.4952662037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45985.51872685185</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45985.48290509259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39587,7 +39587,7 @@
         <v>45985.6084837963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39649,7 +39649,7 @@
         <v>45986.36297453703</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39706,7 +39706,7 @@
         <v>45695.47608796296</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         <v>45161.3783912037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45986.32636574074</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44461</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45987.38523148148</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         <v>45957</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>44807.32344907407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44418</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45986.32357638889</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45986.61253472222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45989.49912037037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>45988.40418981481</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>45989.61996527778</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>45989.62903935185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45621</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45264.60821759259</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45992.546875</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>46034.50521990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45603.63878472222</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40809,7 +40809,7 @@
         <v>45324</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         <v>46034.50962962963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40923,7 +40923,7 @@
         <v>46035.43505787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40980,7 +40980,7 @@
         <v>45994.31027777777</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45588.6134837963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41099,7 +41099,7 @@
         <v>46036.39015046296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41156,7 +41156,7 @@
         <v>46037.59884259259</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41213,7 +41213,7 @@
         <v>46037.60666666667</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41270,7 +41270,7 @@
         <v>45994.65038194445</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41327,7 +41327,7 @@
         <v>45994.6740162037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>46036.43516203704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41446,7 +41446,7 @@
         <v>45632</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>45071</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>45999.45813657407</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>46037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44939.44358796296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41731,7 +41731,7 @@
         <v>45999.46466435185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41788,7 +41788,7 @@
         <v>45411.46914351852</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45771</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45771.66496527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41989,7 +41989,7 @@
         <v>46042.48768518519</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42046,7 +42046,7 @@
         <v>45755.29549768518</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42103,7 +42103,7 @@
         <v>46042.49140046296</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42160,7 +42160,7 @@
         <v>45622.69833333333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42217,7 +42217,7 @@
         <v>46043.58049768519</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42274,7 +42274,7 @@
         <v>46043</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42331,7 +42331,7 @@
         <v>46000.61697916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42388,7 +42388,7 @@
         <v>46043.47447916667</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42445,7 +42445,7 @@
         <v>46043</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42502,7 +42502,7 @@
         <v>45265</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42559,7 +42559,7 @@
         <v>45617.32957175926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42616,7 +42616,7 @@
         <v>45639</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42673,7 +42673,7 @@
         <v>46027.45892361111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42730,7 +42730,7 @@
         <v>46000</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         <v>46042.5277199074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42844,7 +42844,7 @@
         <v>44519</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42901,7 +42901,7 @@
         <v>45536.37116898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42958,7 +42958,7 @@
         <v>46000.46266203704</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43015,7 +43015,7 @@
         <v>46043.34798611111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43072,7 +43072,7 @@
         <v>46042.54991898148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43129,7 +43129,7 @@
         <v>46045.43083333333</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         <v>46003.32678240741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43243,7 +43243,7 @@
         <v>45159</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>46002.46839120371</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>45737.40759259259</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>46048.45552083333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>46048.40181712963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>46044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43590,7 +43590,7 @@
         <v>45546.30100694444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43647,7 +43647,7 @@
         <v>45546.3049537037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43704,7 +43704,7 @@
         <v>46049.47159722223</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43761,7 +43761,7 @@
         <v>45267.46137731482</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43818,7 +43818,7 @@
         <v>45615.84907407407</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>46048.40478009259</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>45107</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>45107</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>45925.70106481481</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>45090.476875</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44165,7 +44165,7 @@
         <v>46007.64381944444</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44222,7 +44222,7 @@
         <v>44823</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44279,7 +44279,7 @@
         <v>46048.59709490741</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44813.64364583333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>46048.42719907407</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45310</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45775.64297453704</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>46050.55347222222</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44775.41023148148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>45551.36931712963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>45764.57375</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45443.35310185186</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45307.58229166667</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>46050.31758101852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>46050.31621527778</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>46009</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>46050.46100694445</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>46050.34916666667</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>46050.31886574074</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>46033.62140046297</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44424.28652777777</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>46052.55123842593</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>45282</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>46010.61001157408</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>46010.61806712963</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45615,7 +45615,7 @@
         <v>46010.64998842592</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45677,7 +45677,7 @@
         <v>46010.544375</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         <v>46010.36474537037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45796,7 +45796,7 @@
         <v>46041</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45853,7 +45853,7 @@
         <v>46036</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         <v>45665.65398148148</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         <v>46013.3569212963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>44638</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>46052.5503587963</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>46033.68228009259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>46033.69337962963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>45215.3990162037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>46056.36570601852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>46033.69634259259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>46056.32505787037</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>46036</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>46036</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46599,7 +46599,7 @@
         <v>46036</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>44775</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>44775</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>46033.68042824074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>44798</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46889,7 +46889,7 @@
         <v>46033.67858796296</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>46044</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>46033.70020833334</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         <v>46042</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47122,7 +47122,7 @@
         <v>44544.64829861111</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         <v>45625.54185185185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47241,7 +47241,7 @@
         <v>46052</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47303,7 +47303,7 @@
         <v>45680.42128472222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47360,7 +47360,7 @@
         <v>46036</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47417,7 +47417,7 @@
         <v>45436.45934027778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47479,7 +47479,7 @@
         <v>46037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47536,7 +47536,7 @@
         <v>45587.71474537037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47593,7 +47593,7 @@
         <v>46057.97784722222</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47650,7 +47650,7 @@
         <v>45618</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47707,7 +47707,7 @@
         <v>46036</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47764,7 +47764,7 @@
         <v>46057</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         <v>46062.41719907407</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47883,7 +47883,7 @@
         <v>46063.37831018519</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47940,7 +47940,7 @@
         <v>45198.580625</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         <v>46036</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48054,7 +48054,7 @@
         <v>44790.36503472222</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48111,7 +48111,7 @@
         <v>45958</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>44529</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48245,7 +48245,7 @@
         <v>46050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48302,7 +48302,7 @@
         <v>45302.31002314815</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48359,7 +48359,7 @@
         <v>44818</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48416,7 +48416,7 @@
         <v>46062.66341435185</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48473,7 +48473,7 @@
         <v>46049</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48535,7 +48535,7 @@
         <v>45097.36627314815</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48592,7 +48592,7 @@
         <v>46062.39954861111</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>46063.65449074074</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>46037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         <v>46019</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48820,7 +48820,7 @@
         <v>45399</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48877,7 +48877,7 @@
         <v>45618</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48934,7 +48934,7 @@
         <v>46049</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48991,7 +48991,7 @@
         <v>46049</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49048,7 +49048,7 @@
         <v>46064.33961805556</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49105,7 +49105,7 @@
         <v>45558</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49162,7 +49162,7 @@
         <v>45770</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49224,7 +49224,7 @@
         <v>46044</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49281,7 +49281,7 @@
         <v>46065.01725694445</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
         <v>46048</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49395,7 +49395,7 @@
         <v>46064.39819444445</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
         <v>45772.61135416666</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49514,7 +49514,7 @@
         <v>46056</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>46065.60702546296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49633,7 +49633,7 @@
         <v>46064.32984953704</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49690,7 +49690,7 @@
         <v>46065.62890046297</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49747,7 +49747,7 @@
         <v>46048</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49804,7 +49804,7 @@
         <v>46066.65887731482</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         <v>44953</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49918,7 +49918,7 @@
         <v>46065</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49980,7 +49980,7 @@
         <v>46025.31461805556</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50037,7 +50037,7 @@
         <v>45217.5497800926</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50094,7 +50094,7 @@
         <v>46027</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50151,7 +50151,7 @@
         <v>46027.62204861111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50208,7 +50208,7 @@
         <v>46027</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50265,7 +50265,7 @@
         <v>46058</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>46066.38585648148</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>46027.64972222222</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45321.50072916667</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>45518.41333333333</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50555,7 +50555,7 @@
         <v>45518.43670138889</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50612,7 +50612,7 @@
         <v>46058</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50674,7 +50674,7 @@
         <v>46062.59186342593</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50731,7 +50731,7 @@
         <v>46027</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>46066.45186342593</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>46025.31342592592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50959,7 +50959,7 @@
         <v>46025.33549768518</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51016,7 +51016,7 @@
         <v>44700.40244212963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51073,7 +51073,7 @@
         <v>46027.43237268519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51130,7 +51130,7 @@
         <v>46027</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51187,7 +51187,7 @@
         <v>46027.59638888889</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51244,7 +51244,7 @@
         <v>46027.688125</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51301,7 +51301,7 @@
         <v>46057</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51358,7 +51358,7 @@
         <v>46027</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51415,7 +51415,7 @@
         <v>45593.41905092593</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51472,7 +51472,7 @@
         <v>46066</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51529,7 +51529,7 @@
         <v>46027</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         <v>46055</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         <v>45586.42542824074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51700,7 +51700,7 @@
         <v>44818</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51757,7 +51757,7 @@
         <v>46070.81976851852</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>46071.63194444445</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51876,7 +51876,7 @@
         <v>45679.56291666667</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>46059</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>46038</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52047,7 +52047,7 @@
         <v>46070.63423611111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52104,7 +52104,7 @@
         <v>45379</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52161,7 +52161,7 @@
         <v>45243</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52218,7 +52218,7 @@
         <v>46028.61246527778</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52280,7 +52280,7 @@
         <v>46070.58440972222</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52337,7 +52337,7 @@
         <v>45516.34715277778</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52394,7 +52394,7 @@
         <v>46070.58225694444</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45105</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>46029</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>46029</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>46070.8153587963</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45168</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>45671</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>45671</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>45672</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>46070.57946759259</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>46071.64008101852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53031,7 +53031,7 @@
         <v>45176</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53088,7 +53088,7 @@
         <v>46073.56826388889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>45420.56627314815</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53212,7 +53212,7 @@
         <v>46029.82166666666</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53269,7 +53269,7 @@
         <v>45107.41450231482</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53326,7 +53326,7 @@
         <v>45555.47621527778</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53383,7 +53383,7 @@
         <v>44910.44016203703</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53440,7 +53440,7 @@
         <v>46073.53613425926</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53502,7 +53502,7 @@
         <v>46062</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53559,7 +53559,7 @@
         <v>46050</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53616,7 +53616,7 @@
         <v>45769</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53673,7 +53673,7 @@
         <v>46051</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53730,7 +53730,7 @@
         <v>46069</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53787,7 +53787,7 @@
         <v>46065</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
         <v>46071.92429398148</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         <v>46073.55655092592</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53963,7 +53963,7 @@
         <v>46073.58342592593</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54025,7 +54025,7 @@
         <v>46050</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54082,7 +54082,7 @@
         <v>45236.30247685185</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54139,7 +54139,7 @@
         <v>46057</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54196,7 +54196,7 @@
         <v>46056</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54253,7 +54253,7 @@
         <v>46059</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54310,7 +54310,7 @@
         <v>45722.53209490741</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54367,7 +54367,7 @@
         <v>46073.54436342593</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54429,7 +54429,7 @@
         <v>46031.5739699074</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54486,7 +54486,7 @@
         <v>45590.36722222222</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54548,7 +54548,7 @@
         <v>46073.55990740741</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54610,7 +54610,7 @@
         <v>46073.56400462963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54672,7 +54672,7 @@
         <v>46031.3459375</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54729,7 +54729,7 @@
         <v>46030</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54791,7 +54791,7 @@
         <v>46072.94371527778</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54853,7 +54853,7 @@
         <v>46072.94550925926</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54915,7 +54915,7 @@
         <v>46030</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54972,7 +54972,7 @@
         <v>45483.40959490741</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55034,7 +55034,7 @@
         <v>46062</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55091,7 +55091,7 @@
         <v>45611.49712962963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55148,7 +55148,7 @@
         <v>45210.64642361111</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55205,7 +55205,7 @@
         <v>45329</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55262,7 +55262,7 @@
         <v>44571.60844907408</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55319,7 +55319,7 @@
         <v>45230.33048611111</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55376,7 +55376,7 @@
         <v>45243.58079861111</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55433,7 +55433,7 @@
         <v>45537.34827546297</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55490,7 +55490,7 @@
         <v>45426.38958333333</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55547,7 +55547,7 @@
         <v>44939.65450231481</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55604,7 +55604,7 @@
         <v>44728.57715277778</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         <v>45575.54640046296</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55728,7 +55728,7 @@
         <v>44818</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55785,7 +55785,7 @@
         <v>45317</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55842,7 +55842,7 @@
         <v>44929.44452546296</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55899,7 +55899,7 @@
         <v>45644.34916666667</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55956,7 +55956,7 @@
         <v>45183.60849537037</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56013,7 +56013,7 @@
         <v>45769.43125</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45476.35585648148</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56127,7 +56127,7 @@
         <v>45642.35099537037</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56184,7 +56184,7 @@
         <v>45642.35502314815</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56241,7 +56241,7 @@
         <v>44637</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56298,7 +56298,7 @@
         <v>45119.47708333333</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56355,7 +56355,7 @@
         <v>45223.37157407407</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56412,7 +56412,7 @@
         <v>44806.30716435185</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56469,7 +56469,7 @@
         <v>44519</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56526,7 +56526,7 @@
         <v>44875</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56583,7 +56583,7 @@
         <v>45646.7196412037</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56645,7 +56645,7 @@
         <v>45646.79003472222</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56702,7 +56702,7 @@
         <v>45582</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56759,7 +56759,7 @@
         <v>44841</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56816,7 +56816,7 @@
         <v>45639.64945601852</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56873,7 +56873,7 @@
         <v>45775.45716435185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56935,7 +56935,7 @@
         <v>45098.64297453704</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -56992,7 +56992,7 @@
         <v>44459.65792824074</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57054,7 +57054,7 @@
         <v>45567.38679398148</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57111,7 +57111,7 @@
         <v>45377.41113425926</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57168,7 +57168,7 @@
         <v>45182</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57225,7 +57225,7 @@
         <v>45194</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57287,7 +57287,7 @@
         <v>45187.45252314815</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57344,7 +57344,7 @@
         <v>45440.45778935185</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57401,7 +57401,7 @@
         <v>45072</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57463,7 +57463,7 @@
         <v>45329.35387731482</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57520,7 +57520,7 @@
         <v>45204.35597222222</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57577,7 +57577,7 @@
         <v>45516.57633101852</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57639,7 +57639,7 @@
         <v>45751.33146990741</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57696,7 +57696,7 @@
         <v>45194.46690972222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57753,7 +57753,7 @@
         <v>45349.51662037037</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57810,7 +57810,7 @@
         <v>45245.46958333333</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44847</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57924,7 +57924,7 @@
         <v>45071.64552083334</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -57981,7 +57981,7 @@
         <v>45641.91351851852</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58038,7 +58038,7 @@
         <v>45736.56929398148</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58095,7 +58095,7 @@
         <v>45455.32771990741</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58157,7 +58157,7 @@
         <v>44930</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58214,7 +58214,7 @@
         <v>45371</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58271,7 +58271,7 @@
         <v>44517.52438657408</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58328,7 +58328,7 @@
         <v>45139</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58385,7 +58385,7 @@
         <v>45742.60196759259</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58442,7 +58442,7 @@
         <v>45231.4996875</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58499,7 +58499,7 @@
         <v>45231</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58556,7 +58556,7 @@
         <v>45534.40212962963</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58613,7 +58613,7 @@
         <v>45392.44894675926</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58670,7 +58670,7 @@
         <v>44997.40393518518</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>45575.54987268519</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58789,7 +58789,7 @@
         <v>45002.34532407407</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>45259</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58903,7 +58903,7 @@
         <v>45625</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -58960,7 +58960,7 @@
         <v>45267</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59017,7 +59017,7 @@
         <v>44746.35429398148</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59074,7 +59074,7 @@
         <v>45600.45541666666</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         <v>45232</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59188,7 +59188,7 @@
         <v>45635.63774305556</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59245,7 +59245,7 @@
         <v>44377</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59307,7 +59307,7 @@
         <v>45756.34162037037</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59364,7 +59364,7 @@
         <v>44907.52895833334</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         <v>45582</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59483,7 +59483,7 @@
         <v>45744</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59540,7 +59540,7 @@
         <v>44909</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59602,7 +59602,7 @@
         <v>45190</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59659,7 +59659,7 @@
         <v>45176.35158564815</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59721,7 +59721,7 @@
         <v>45484.42069444444</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59783,7 +59783,7 @@
         <v>44866</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59840,7 +59840,7 @@
         <v>45769</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59902,7 +59902,7 @@
         <v>45422.40207175926</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
         <v>45516.60981481482</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         <v>45112</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60078,7 +60078,7 @@
         <v>45334.3753125</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60135,7 +60135,7 @@
         <v>45173.62484953704</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60192,7 +60192,7 @@
         <v>45772.28409722223</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60249,7 +60249,7 @@
         <v>45586.59115740741</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60311,7 +60311,7 @@
         <v>45733.57180555556</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60368,7 +60368,7 @@
         <v>45525.275</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60425,7 +60425,7 @@
         <v>45525.28571759259</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60482,7 +60482,7 @@
         <v>44551.68319444444</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60539,7 +60539,7 @@
         <v>45321</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60596,7 +60596,7 @@
         <v>45365.54094907407</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60653,7 +60653,7 @@
         <v>45622.3167824074</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60710,7 +60710,7 @@
         <v>44804.54327546297</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60767,7 +60767,7 @@
         <v>45686.45730324074</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60824,7 +60824,7 @@
         <v>45666.3599537037</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60881,7 +60881,7 @@
         <v>44475</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60938,7 +60938,7 @@
         <v>45641.92173611111</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -60995,7 +60995,7 @@
         <v>45751</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61052,7 +61052,7 @@
         <v>45771.47921296296</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61109,7 +61109,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61166,7 +61166,7 @@
         <v>45595</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61223,7 +61223,7 @@
         <v>45188</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61280,7 +61280,7 @@
         <v>45560.50650462963</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61337,7 +61337,7 @@
         <v>45666</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61394,7 +61394,7 @@
         <v>45776.31802083334</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61451,7 +61451,7 @@
         <v>45776.39649305555</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61508,7 +61508,7 @@
         <v>45777</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61570,7 +61570,7 @@
         <v>45776.28881944445</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61627,7 +61627,7 @@
         <v>45764.57119212963</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61689,7 +61689,7 @@
         <v>45776.28671296296</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         <v>45776.3999537037</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -61803,7 +61803,7 @@
         <v>45779</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -61860,7 +61860,7 @@
         <v>45779.56446759259</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -61922,7 +61922,7 @@
         <v>45616</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -61979,7 +61979,7 @@
         <v>45782.56483796296</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -62036,7 +62036,7 @@
         <v>45279</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62093,7 +62093,7 @@
         <v>45505.46570601852</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62150,7 +62150,7 @@
         <v>45782.44003472223</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62207,7 +62207,7 @@
         <v>44799.64663194444</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62269,7 +62269,7 @@
         <v>45784</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62326,7 +62326,7 @@
         <v>45602.67575231481</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62383,7 +62383,7 @@
         <v>45784.99393518519</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62440,7 +62440,7 @@
         <v>45351</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62497,7 +62497,7 @@
         <v>45545.59650462963</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62554,7 +62554,7 @@
         <v>45784.34387731482</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62611,7 +62611,7 @@
         <v>45273.66196759259</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -62668,7 +62668,7 @@
         <v>45505.46128472222</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -62725,7 +62725,7 @@
         <v>45582</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -62782,7 +62782,7 @@
         <v>45702</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -62839,7 +62839,7 @@
         <v>45505.45523148148</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -62896,7 +62896,7 @@
         <v>45786</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -62953,7 +62953,7 @@
         <v>45428.40965277778</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -63010,7 +63010,7 @@
         <v>45516.60577546297</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63067,7 +63067,7 @@
         <v>45789.6521875</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63124,7 +63124,7 @@
         <v>45789.62225694444</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63181,7 +63181,7 @@
         <v>45552</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63238,7 +63238,7 @@
         <v>45791.53803240741</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63295,7 +63295,7 @@
         <v>45790.41590277778</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63352,7 +63352,7 @@
         <v>45188.58259259259</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63409,7 +63409,7 @@
         <v>45518.41770833333</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63466,7 +63466,7 @@
         <v>45740.74896990741</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -63528,7 +63528,7 @@
         <v>45559.67018518518</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -63590,7 +63590,7 @@
         <v>45793.57851851852</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -63652,7 +63652,7 @@
         <v>45793.61202546296</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -63709,7 +63709,7 @@
         <v>45097</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -63771,7 +63771,7 @@
         <v>45097</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -63833,7 +63833,7 @@
         <v>45518</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -63890,7 +63890,7 @@
         <v>45594.41760416667</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -63947,7 +63947,7 @@
         <v>45796.66003472222</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -64004,7 +64004,7 @@
         <v>45797.31393518519</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -64061,7 +64061,7 @@
         <v>45796.45900462963</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -64118,7 +64118,7 @@
         <v>45796.70064814815</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -64175,7 +64175,7 @@
         <v>45533</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -64232,7 +64232,7 @@
         <v>45796.46270833333</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -64289,7 +64289,7 @@
         <v>45796</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -64346,7 +64346,7 @@
         <v>45799.52755787037</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -64403,7 +64403,7 @@
         <v>45798.35150462963</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -64465,7 +64465,7 @@
         <v>45799.52506944445</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -64522,7 +64522,7 @@
         <v>45798</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -64579,7 +64579,7 @@
         <v>45799</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -64636,7 +64636,7 @@
         <v>45555.45337962963</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -64693,7 +64693,7 @@
         <v>45803.58059027778</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -64750,7 +64750,7 @@
         <v>45373.45642361111</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -64807,7 +64807,7 @@
         <v>45803.44761574074</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -64869,7 +64869,7 @@
         <v>45803.45435185185</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -64931,7 +64931,7 @@
         <v>45803.45581018519</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -64993,7 +64993,7 @@
         <v>45803.45840277777</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -65055,7 +65055,7 @@
         <v>45803.44173611111</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -65117,7 +65117,7 @@
         <v>45755.29123842593</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -65174,7 +65174,7 @@
         <v>45804.63291666667</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -65231,7 +65231,7 @@
         <v>45623.57618055555</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -65288,7 +65288,7 @@
         <v>45810.62579861111</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -65345,7 +65345,7 @@
         <v>45377.38084490741</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -65407,7 +65407,7 @@
         <v>45813.42855324074</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -65469,7 +65469,7 @@
         <v>45813.60965277778</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -65531,7 +65531,7 @@
         <v>45813</v>
       </c>
       <c r="C1086" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -65588,7 +65588,7 @@
         <v>45813</v>
       </c>
       <c r="C1087" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -65645,7 +65645,7 @@
         <v>45817.65202546296</v>
       </c>
       <c r="C1088" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45887.49638888889</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45835.61137731482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>45350</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45147</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45874.38917824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>44874</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45476</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>46002</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46002.48862268519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44386</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45646.72123842593</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>45824.64866898148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>45947.6665625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44572</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45947.66400462963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45534.63258101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45720.55679398148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45845</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45393</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45965.31166666667</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45978.51803240741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>45534.36650462963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>45986.33803240741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45033</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>46052</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>46036</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>45222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45665.5678587963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44470.56413194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44627</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44568</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44414</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45411.46664351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>45758</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45531.6003125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44918</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>45726.46378472223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45841.40885416666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>45686.32865740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>44511</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45406.48300925926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>45975.59050925926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45415</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>45986.55873842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45077</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45996.62631944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>46042.54230324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45194</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>45772.61609953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>45231</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>46027.63283564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>46066</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45588.32491898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>46052</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>46036</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>45517</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45784.99015046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45524</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44326</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44792.51143518519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44860</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44469.23111111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44459</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44495.57832175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44495.57938657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44495.58121527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44350</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44497.97938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44536.66678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44330.57261574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44336</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44460.61314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44421.30673611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44610</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44449</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44620</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44347</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44763.44908564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44763.67344907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44326</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44386</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>44421</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44749</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44470</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44284</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44470</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>44638</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44435.52408564815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44790.36993055556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44795</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44795.28973379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44377.58011574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44791</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44824</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44459</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44459</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>44363</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44322</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44306</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44804.529375</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44414</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44833.32222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44326</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44273</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44391.69834490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>44391.70168981481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>44565.64167824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44305.44425925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44733.49084490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44400.88949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44459.60768518518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44874.80803240741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44484</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44451.90091435185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44571.6652662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44307</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44469.23025462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44349</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44692</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44477</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>44414.71174768519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44351</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44300.60704861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44774</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>44838.32039351852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44529</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44799.64722222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44799.64895833333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44862.54098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44638</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44551</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44377.57457175926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44845.61091435186</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44533</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44868</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44484.6912037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44839.41791666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44839.42304398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44414</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44797.46636574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44552</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44544</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44644</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44489.60423611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44679.38747685185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44679.39083333333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44845.60875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44579.39820601852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44732</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44348</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44403.42903935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44537.29784722222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44795.28498842593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44537</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44537.62671296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44789.33553240741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44351</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44748</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44749.55309027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44424</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44511</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44818</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44798</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45329</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45321.29981481482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45267</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45329.35387731482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44475</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>45225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45377.41113425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44806.30716435185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>45531.48523148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45365.54094907407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44300.60414351852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45330</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>45399</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44866</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45259.61207175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45453.58515046296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45243.588125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44340</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45299.56534722223</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45420.56627314815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44928.42864583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44790.36503472222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45071</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44775</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44775</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45257</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45516.60981481482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44573.70490740741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44517.52438657408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45593.41905092593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45478</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44819</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45310</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45231.4996875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45231</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45436.45934027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>45516.34715277778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44529</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44939.65450231481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>45161.3783912037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>45546.30100694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>45546.3049537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>45236.30247685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>45337.53060185185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>45483.40959490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45537.34827546297</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44890</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45582</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45539.43597222222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45518.41333333333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45518.43670138889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45190</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45188</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44910.44016203703</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45646.79003472222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45551.36931712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45646.64365740741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45884.6291087963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44909</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45884.43928240741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45883</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45525.275</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45525.28571759259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45525.38068287037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45810.62579861111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45623.57618055555</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45888.50637731481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45749</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45742.60677083334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45742.60869212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45618</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45888.44871527778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45887.46721064814</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>45888.40212962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45516.57633101852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45377.38084490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45888.58789351852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45888</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45813.60965277778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>45813</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45813.42855324074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45813</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45321.30668981482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45201.42883101852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45565.3477662037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45653.4371875</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45743.46100694445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45700.53663194444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45894.65532407408</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45894.6841087963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45894.6880787037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45817.65202546296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45817.63287037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44964.7396875</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45243</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45819.55390046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44893.3391550926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45820.52292824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45819</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45821.60831018518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>45824.43866898148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45824.56244212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45622.42818287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45895</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45826.45706018519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45896.64556712963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45895</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45720.63201388889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45896.2971412037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44944.65050925926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45895.31238425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45896.64891203704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45825.32450231481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45825.51869212963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45825.513125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45825</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45825.30818287037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45825</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45825</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>45825.33085648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44529</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>45827.64935185185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45898.29179398148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45757.29122685185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45827.65038194445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45901.45232638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>45901.303125</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45902</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45827.30564814815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44977.61744212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44977</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>45831.3905787037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45831.56690972222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45903.32292824074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44872</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>45832.4041087963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45903.35346064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45831.55048611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44911</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45426.38958333333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>45905.53444444444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45905.45695601852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45833.89387731482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45321</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>45833</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>45833.37924768519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>45321.33197916667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45833</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>45833.34159722222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45905.44015046296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>45397.34418981482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>45833</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>45833</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22596,7 +22596,7 @@
         <v>45182</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>45833.35479166666</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>45558</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>45835.54628472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>45835.35462962963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45112</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45908.53179398148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45908.41019675926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45562.34228009259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45621</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45835.3232175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>45835.37127314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>45910.56046296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45755.28888888889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45363.58723379629</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45840</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>45840</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>45840</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>45910.59958333334</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>45693.7193287037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>45314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45307.58229166667</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>45841.40537037037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45909</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45910.60777777778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45841.64982638889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>45603.63878472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45911.56076388889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>45202</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>45733.56675925926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45911.45704861111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45680.42128472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>45671</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>45671</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>45672</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45847.63825231481</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>45911.56247685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>45119.47708333333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45107</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>45912.43482638889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>45849.53065972222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45672</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45915.34418981482</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45852.64936342592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>45849.34428240741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45596.36693287037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45645.58376157407</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45646</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45853.65163194444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45679</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45854.47782407407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44826.2996875</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44728.57715277778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44907.52895833334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>45776.29358796297</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45915.34190972222</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45915.36021990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45915.37336805555</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45915.37585648148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45664.3863425926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45855.41770833333</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45642.35502314815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>45916.61092592592</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45916.2806712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45916.61517361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>44680</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45862.48969907407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45862.56081018518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45917.30706018519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44281</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45625.54185185185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45865.62479166667</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>45636.37861111111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>45922.68672453704</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>45920.57372685185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>45919.29888888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>45923.60047453704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45923.37561342592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44347</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45923.5828125</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>45923.45712962963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>45615.33318287037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>45926.47548611111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>45925.33582175926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>45659</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>45925.54184027778</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45925.54701388889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45874.47474537037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45925.32719907408</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45930.36114583333</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45756.34162037037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45930.48436342592</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45929</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45693.71571759259</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45694.3725</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45874.43518518518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>45874.45763888889</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>45930.58505787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45930.491875</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>45930.36337962963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>45393</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45686.32821759259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45173.62484953704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>45873.54944444444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>45205</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>45803</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>45534.40212962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>45876.69614583333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>45603</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>45877.54670138889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45877.55079861111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>45880</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44529</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45021</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45881.4490625</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45881.44997685185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45882.54722222222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>45637.61962962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45882.56026620371</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45931.7471875</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>45223</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>44823</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45686.34302083333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45933.58769675926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45771.47921296296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45884.42332175926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45884.60569444444</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45884.37982638889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>45215.36112268519</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>45215.3990162037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>45937.52008101852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>45267.46137731482</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>45937.46483796297</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>45770</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>45744</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45937.57186342592</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>45586.42542824074</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45107.41450231482</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45938.46748842593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>45176.35158564815</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45940.42287037037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>44418</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>45939.82260416666</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45939.33846064815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>45939.82416666667</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45772.28409722223</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45940</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45939.34798611111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44377</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45940</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45940</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44641</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45071.64552083334</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45943.53743055555</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45736.57638888889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45943.56230324074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45943.6525462963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45943.56582175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45944.54912037037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44818</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45943.62554398148</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45943.64564814815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45930</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45587.71474537037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44930</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45628.41666666666</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45411.46914351852</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45946.64559027777</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45771</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45771.66496527778</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44461</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>45406.45538194444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45575.54640046296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45279</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>45950.58851851852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>45737.44092592593</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>45952.32971064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45952.61993055556</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33198,7 +33198,7 @@
         <v>45106.3487962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33255,7 +33255,7 @@
         <v>45952.61695601852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33317,7 +33317,7 @@
         <v>45952.61868055556</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45105</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>45953.60881944445</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45251</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45531.61996527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45953.35728009259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45536.37116898148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45954</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44804.54327546297</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45518.34582175926</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45957</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45958.37493055555</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45958.62193287037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
         <v>45321.50072916667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>45167</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45960.55550925926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>45960.54859953704</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>45960.59271990741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         <v>45379</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45960.46038194445</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45398.57138888889</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45245.48416666667</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45960.61532407408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>45672</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45961</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45961.54652777778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44571.60844907408</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>45393</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>45961.57497685185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35057,7 +35057,7 @@
         <v>45251</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35114,7 +35114,7 @@
         <v>45965.43679398148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35171,7 +35171,7 @@
         <v>44519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>45569.36322916667</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35290,7 +35290,7 @@
         <v>45966.37459490741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45965.43789351852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45520.62771990741</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45575.54987268519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35528,7 +35528,7 @@
         <v>45968.49980324074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         <v>45967.41774305556</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45425.5419212963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>45968.49690972222</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>44544.64829861111</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35818,7 +35818,7 @@
         <v>44997.40393518518</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         <v>45968</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35932,7 +35932,7 @@
         <v>45588.6134837963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45967.67859953704</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36051,7 +36051,7 @@
         <v>45751.33146990741</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>45967.68416666667</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36165,7 +36165,7 @@
         <v>45971</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         <v>45971.46777777778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45971</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>44889.43208333333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>45971.32695601852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36450,7 +36450,7 @@
         <v>45972.56847222222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>45972.31445601852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         <v>45539.40148148148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         <v>45539.43168981482</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36683,7 +36683,7 @@
         <v>45971</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36740,7 +36740,7 @@
         <v>45973.64146990741</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36797,7 +36797,7 @@
         <v>45974.53908564815</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36854,7 +36854,7 @@
         <v>45537.34924768518</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45974</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45974.70085648148</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45392.44894675926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45124.8894212963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44991.62319444444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>45310</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>45973</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37310,7 +37310,7 @@
         <v>45973.62686342592</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37367,7 +37367,7 @@
         <v>45590.36722222222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>45567.38679398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45975.60946759259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37543,7 +37543,7 @@
         <v>45596.36552083334</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37600,7 +37600,7 @@
         <v>45616.67972222222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37657,7 +37657,7 @@
         <v>45617.32957175926</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37714,7 +37714,7 @@
         <v>45632</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37771,7 +37771,7 @@
         <v>45264.60055555555</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37828,7 +37828,7 @@
         <v>45264.60821759259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37885,7 +37885,7 @@
         <v>45513.52782407407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>45176</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45582</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45569.40421296296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45980.59570601852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>45980.62126157407</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38232,7 +38232,7 @@
         <v>45539.53831018518</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38289,7 +38289,7 @@
         <v>45539.57195601852</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45678.37991898148</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38403,7 +38403,7 @@
         <v>45618</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>45981.60518518519</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45597.66034722222</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>45986.32636574074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45985.42835648148</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45957</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45985.54118055556</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>45985.48290509259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>45985.4344212963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>45985.41136574074</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>44515.47277777778</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45481.37175925926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>45534.40519675926</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45600.45541666666</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45985.47201388889</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45985.51872685185</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45986.61253472222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>44911</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>45986.32357638889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45985.6084837963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>45986.36297453703</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45985.38504629629</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>45985.4952662037</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45645</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>45334.37760416666</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45987.38523148148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>45988.40418981481</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>45476.35585648148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45033</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44562</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>45989.61996527778</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>45181</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>45989.62903935185</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>45992.546875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40366,7 +40366,7 @@
         <v>45168</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>45989.49912037037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>45994.6740162037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45558</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45644.34916666667</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45994.65038194445</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45994.31027777777</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45555.47621527778</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>45623.57366898148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>46000.61697916667</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>45421.52717592593</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41003,7 +41003,7 @@
         <v>46000.46266203704</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>46042.5277199074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>45999.45813657407</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>45371</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>45351.53083333333</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>45621.61481481481</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>45677</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>46000</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>45999.46466435185</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>45187.45252314815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>46042.48768518519</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>45737.40759259259</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>45201.37068287037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>46042.49140046296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>46042.54991898148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>45217.5497800926</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>45194.36666666667</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>46043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>46043</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>45183.60849537037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>44349</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>45641.92173611111</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>45440.45778935185</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>45223.37157407407</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>46043.47447916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>45686.46539351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>46043.34798611111</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>46043.58049768519</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>45560.50650462963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>46002.46839120371</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>46048.40181712963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>45672</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>45666.3599537037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>46048.42719907407</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>46048.45552083333</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44638</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>45359</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>46048.59709490741</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>46045.43083333333</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>45085</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>45775.64297453704</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>44637</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>46003.32678240741</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43454,7 +43454,7 @@
         <v>46048.40478009259</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43511,7 +43511,7 @@
         <v>45225</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43568,7 +43568,7 @@
         <v>45925.70106481481</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43630,7 +43630,7 @@
         <v>46050.34916666667</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43687,7 +43687,7 @@
         <v>45721.41333333333</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43744,7 +43744,7 @@
         <v>46044</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43801,7 +43801,7 @@
         <v>44651</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43858,7 +43858,7 @@
         <v>46050.55347222222</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43915,7 +43915,7 @@
         <v>46050.31758101852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43972,7 +43972,7 @@
         <v>45755.29549768518</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44029,7 +44029,7 @@
         <v>46007.64381944444</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44086,7 +44086,7 @@
         <v>45455.32771990741</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>46050.31621527778</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>46049.47159722223</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>45176</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>46050.31886574074</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>45686.45730324074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>45253.65384259259</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44490,7 +44490,7 @@
         <v>46010.61001157408</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44552,7 +44552,7 @@
         <v>45267</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44609,7 +44609,7 @@
         <v>46010.61806712963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>46010.64998842592</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44733,7 +44733,7 @@
         <v>45161</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44795,7 +44795,7 @@
         <v>46010.544375</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44857,7 +44857,7 @@
         <v>46041</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44914,7 +44914,7 @@
         <v>45275.31835648148</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44971,7 +44971,7 @@
         <v>45679.56291666667</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45028,7 +45028,7 @@
         <v>46009</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45085,7 +45085,7 @@
         <v>45772.61135416666</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45147,7 +45147,7 @@
         <v>46010.36474537037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45204,7 +45204,7 @@
         <v>46052.55123842593</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         <v>46052.5503587963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45318,7 +45318,7 @@
         <v>46013.3569212963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45375,7 +45375,7 @@
         <v>46056.32505787037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45432,7 +45432,7 @@
         <v>46056.36570601852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45494,7 +45494,7 @@
         <v>45107</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45551,7 +45551,7 @@
         <v>46044</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45608,7 +45608,7 @@
         <v>45422.40207175926</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45670,7 +45670,7 @@
         <v>45168</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45727,7 +45727,7 @@
         <v>45695.47608796296</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>46052</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45846,7 +45846,7 @@
         <v>44719</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45903,7 +45903,7 @@
         <v>46062.66341435185</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45960,7 +45960,7 @@
         <v>46042</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46017,7 +46017,7 @@
         <v>44813.64364583333</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46079,7 +46079,7 @@
         <v>44897</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46136,7 +46136,7 @@
         <v>46019</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46193,7 +46193,7 @@
         <v>45958</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46250,7 +46250,7 @@
         <v>46062.41719907407</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46307,7 +46307,7 @@
         <v>45210.64642361111</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46364,7 +46364,7 @@
         <v>44798</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>46049</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46483,7 +46483,7 @@
         <v>45726.43910879629</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45317</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>46044</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>46063.65449074074</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45300.3930787037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>46049</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46825,7 +46825,7 @@
         <v>46063.37831018519</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46882,7 +46882,7 @@
         <v>46064.33961805556</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>46064.32984953704</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46996,7 +46996,7 @@
         <v>46057</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>46050</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>44775.41023148148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47172,7 +47172,7 @@
         <v>46064.39819444445</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>46065</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45173</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45231</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47405,7 +47405,7 @@
         <v>45231</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47462,7 +47462,7 @@
         <v>46049</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
         <v>46055</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47576,7 +47576,7 @@
         <v>46048</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45265</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47690,7 +47690,7 @@
         <v>45265</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47747,7 +47747,7 @@
         <v>46065.60702546296</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47804,7 +47804,7 @@
         <v>46048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47861,7 +47861,7 @@
         <v>46065.62890046297</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47918,7 +47918,7 @@
         <v>45362.46164351852</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47975,7 +47975,7 @@
         <v>46057</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48032,7 +48032,7 @@
         <v>46058</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48094,7 +48094,7 @@
         <v>46058</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48156,7 +48156,7 @@
         <v>46066.38585648148</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         <v>46056</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48275,7 +48275,7 @@
         <v>46066.45186342593</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48332,7 +48332,7 @@
         <v>45321</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48389,7 +48389,7 @@
         <v>46027.59638888889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48446,7 +48446,7 @@
         <v>46059</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48503,7 +48503,7 @@
         <v>45072</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45072</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45358.49988425926</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>46028.61246527778</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48741,7 +48741,7 @@
         <v>46038</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48798,7 +48798,7 @@
         <v>46025.31461805556</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48855,7 +48855,7 @@
         <v>46025.31342592592</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48912,7 +48912,7 @@
         <v>46070.8153587963</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48969,7 +48969,7 @@
         <v>46027</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         <v>46066</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49083,7 +49083,7 @@
         <v>45484.42069444444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49145,7 +49145,7 @@
         <v>46070.81976851852</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49202,7 +49202,7 @@
         <v>46027.64972222222</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49259,7 +49259,7 @@
         <v>46027.62204861111</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49316,7 +49316,7 @@
         <v>46027</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49373,7 +49373,7 @@
         <v>46027</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>45736.56929398148</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>46027</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>46027</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>46027.688125</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>46027.43237268519</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>46025.33549768518</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>46070.57946759259</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>46070.58225694444</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49891,7 +49891,7 @@
         <v>46027</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49948,7 +49948,7 @@
         <v>45769</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>46030</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50067,7 +50067,7 @@
         <v>46062</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>46071.63194444445</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50186,7 +50186,7 @@
         <v>46071.64008101852</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50248,7 +50248,7 @@
         <v>46030</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50305,7 +50305,7 @@
         <v>46071.92429398148</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50362,7 +50362,7 @@
         <v>45737.43738425926</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         <v>46050</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50476,7 +50476,7 @@
         <v>46029</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50533,7 +50533,7 @@
         <v>46050</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50590,7 +50590,7 @@
         <v>46062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50647,7 +50647,7 @@
         <v>46059</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50704,7 +50704,7 @@
         <v>45097.36627314815</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50761,7 +50761,7 @@
         <v>46029</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50818,7 +50818,7 @@
         <v>44847</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50875,7 +50875,7 @@
         <v>46029.82166666666</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50932,7 +50932,7 @@
         <v>46051</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50989,7 +50989,7 @@
         <v>46056</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>45344</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51103,7 +51103,7 @@
         <v>46073.55990740741</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         <v>46073.56400462963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51227,7 +51227,7 @@
         <v>46031.5739699074</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51284,7 +51284,7 @@
         <v>46034.50521990741</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51341,7 +51341,7 @@
         <v>46033.69634259259</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51398,7 +51398,7 @@
         <v>46070</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>46073.53613425926</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>46033.67858796296</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>46033.70020833334</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>45671</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51693,7 +51693,7 @@
         <v>46072.94371527778</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51755,7 +51755,7 @@
         <v>46072.94550925926</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>46033.68042824074</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>46033.68228009259</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51936,7 +51936,7 @@
         <v>46033.69337962963</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45639.64945601852</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>46057</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>46033.62140046297</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52164,7 +52164,7 @@
         <v>45567.33315972222</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52221,7 +52221,7 @@
         <v>45093</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52283,7 +52283,7 @@
         <v>46076.42642361111</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52340,7 +52340,7 @@
         <v>46031.3459375</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52397,7 +52397,7 @@
         <v>46073.54436342593</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52459,7 +52459,7 @@
         <v>46069</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52516,7 +52516,7 @@
         <v>45611.49712962963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52573,7 +52573,7 @@
         <v>45537.34337962963</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52630,7 +52630,7 @@
         <v>46034.50962962963</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52687,7 +52687,7 @@
         <v>46073.55655092592</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         <v>46073.58342592593</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52811,7 +52811,7 @@
         <v>46073.56826388889</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45537.30159722222</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>46065</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>46036</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45517</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45259</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>46036</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>46077</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53277,7 +53277,7 @@
         <v>46036</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53334,7 +53334,7 @@
         <v>44841</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53391,7 +53391,7 @@
         <v>45547.35722222222</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53448,7 +53448,7 @@
         <v>45523.59195601852</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53510,7 +53510,7 @@
         <v>46077.61053240741</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53567,7 +53567,7 @@
         <v>46078.58292824074</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53629,7 +53629,7 @@
         <v>45560</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53686,7 +53686,7 @@
         <v>46050</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53743,7 +53743,7 @@
         <v>45539.55662037037</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53800,7 +53800,7 @@
         <v>46065.01725694445</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53857,7 +53857,7 @@
         <v>44459.65792824074</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53919,7 +53919,7 @@
         <v>46062</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53976,7 +53976,7 @@
         <v>46078.37723379629</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54038,7 +54038,7 @@
         <v>44746</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54095,7 +54095,7 @@
         <v>45282</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54152,7 +54152,7 @@
         <v>44621</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54209,7 +54209,7 @@
         <v>46077</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54271,7 +54271,7 @@
         <v>44964.72545138889</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54328,7 +54328,7 @@
         <v>46036</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54385,7 +54385,7 @@
         <v>46027</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54442,7 +54442,7 @@
         <v>46077.54371527778</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54504,7 +54504,7 @@
         <v>46077.55415509259</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54566,7 +54566,7 @@
         <v>45555.5039699074</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54623,7 +54623,7 @@
         <v>46077.64888888889</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54685,7 +54685,7 @@
         <v>46036.43516203704</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54742,7 +54742,7 @@
         <v>46035.43505787037</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54799,7 +54799,7 @@
         <v>46036.39015046296</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54856,7 +54856,7 @@
         <v>46036</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54913,7 +54913,7 @@
         <v>44762.63053240741</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54970,7 +54970,7 @@
         <v>44602</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         <v>46036</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>44796.28063657408</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>46070</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55198,7 +55198,7 @@
         <v>46077.56442129629</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55260,7 +55260,7 @@
         <v>44742.47446759259</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55317,7 +55317,7 @@
         <v>46036</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55374,7 +55374,7 @@
         <v>46078.39037037037</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55436,7 +55436,7 @@
         <v>46078.55905092593</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55493,7 +55493,7 @@
         <v>44377</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55555,7 +55555,7 @@
         <v>46037.60666666667</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55612,7 +55612,7 @@
         <v>46037</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55669,7 +55669,7 @@
         <v>44807.32344907407</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55726,7 +55726,7 @@
         <v>45443.35310185186</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55783,7 +55783,7 @@
         <v>46079.50517361111</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55840,7 +55840,7 @@
         <v>46079.57311342593</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55902,7 +55902,7 @@
         <v>45302.31002314815</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55959,7 +55959,7 @@
         <v>46062</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56016,7 +56016,7 @@
         <v>46062</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56073,7 +56073,7 @@
         <v>45539.5587037037</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56130,7 +56130,7 @@
         <v>46066</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56187,7 +56187,7 @@
         <v>46078</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56244,7 +56244,7 @@
         <v>46079.50486111111</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         <v>45621</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56363,7 +56363,7 @@
         <v>44930</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56420,7 +56420,7 @@
         <v>46057.97784722222</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56477,7 +56477,7 @@
         <v>45733.57180555556</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56534,7 +56534,7 @@
         <v>45264.59304398148</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56591,7 +56591,7 @@
         <v>46037</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56648,7 +56648,7 @@
         <v>46037</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56705,7 +56705,7 @@
         <v>46037.59884259259</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56762,7 +56762,7 @@
         <v>45258.56001157407</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56819,7 +56819,7 @@
         <v>44424.28652777777</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56881,7 +56881,7 @@
         <v>45266.32162037037</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -56938,7 +56938,7 @@
         <v>45229.59721064815</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -56995,7 +56995,7 @@
         <v>45230.33048611111</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57052,7 +57052,7 @@
         <v>45245.48171296297</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57109,7 +57109,7 @@
         <v>45245.46958333333</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57166,7 +57166,7 @@
         <v>44960.57613425926</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57223,7 +57223,7 @@
         <v>44882</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57280,7 +57280,7 @@
         <v>45324</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57337,7 +57337,7 @@
         <v>44700.40244212963</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57394,7 +57394,7 @@
         <v>44684</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57451,7 +57451,7 @@
         <v>45622.3167824074</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57508,7 +57508,7 @@
         <v>45098.64297453704</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57565,7 +57565,7 @@
         <v>45002.34532407407</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57622,7 +57622,7 @@
         <v>45764.57375</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57684,7 +57684,7 @@
         <v>44746.35429398148</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57741,7 +57741,7 @@
         <v>45019</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57798,7 +57798,7 @@
         <v>45019</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57855,7 +57855,7 @@
         <v>45243</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -57912,7 +57912,7 @@
         <v>45194</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -57974,7 +57974,7 @@
         <v>45666</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58031,7 +58031,7 @@
         <v>44930</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58088,7 +58088,7 @@
         <v>44930</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58145,7 +58145,7 @@
         <v>44834</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58202,7 +58202,7 @@
         <v>45266.58407407408</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58259,7 +58259,7 @@
         <v>45344.38203703704</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58316,7 +58316,7 @@
         <v>45245.31895833334</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58378,7 +58378,7 @@
         <v>45742.60196759259</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58435,7 +58435,7 @@
         <v>45590.37570601852</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58497,7 +58497,7 @@
         <v>45618</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58554,7 +58554,7 @@
         <v>45248.37060185185</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58611,7 +58611,7 @@
         <v>45155</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58668,7 +58668,7 @@
         <v>45642.35099537037</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58725,7 +58725,7 @@
         <v>45182</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58782,7 +58782,7 @@
         <v>45349.51662037037</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58839,7 +58839,7 @@
         <v>45159</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -58901,7 +58901,7 @@
         <v>44840</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -58958,7 +58958,7 @@
         <v>45321.4805787037</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59015,7 +59015,7 @@
         <v>45090.476875</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59072,7 +59072,7 @@
         <v>45440.46175925926</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59129,7 +59129,7 @@
         <v>45586.59115740741</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59191,7 +59191,7 @@
         <v>45537.43009259259</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59253,7 +59253,7 @@
         <v>45544</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59310,7 +59310,7 @@
         <v>45665.65398148148</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59367,7 +59367,7 @@
         <v>45412.62952546297</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59429,7 +59429,7 @@
         <v>44929.44452546296</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59486,7 +59486,7 @@
         <v>45204.35597222222</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59543,7 +59543,7 @@
         <v>45243.58079861111</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45769.389375</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59657,7 +59657,7 @@
         <v>44736</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59714,7 +59714,7 @@
         <v>45321.40265046297</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59771,7 +59771,7 @@
         <v>45198.580625</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59828,7 +59828,7 @@
         <v>45764</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59890,7 +59890,7 @@
         <v>45569</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -59947,7 +59947,7 @@
         <v>45002.4266087963</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60004,7 +60004,7 @@
         <v>44551.68319444444</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60061,7 +60061,7 @@
         <v>44747</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60118,7 +60118,7 @@
         <v>44818</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60175,7 +60175,7 @@
         <v>45646.32006944445</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60232,7 +60232,7 @@
         <v>45769.43125</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60289,7 +60289,7 @@
         <v>45194.46690972222</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60346,7 +60346,7 @@
         <v>45751</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45644</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45225</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60517,7 +60517,7 @@
         <v>45209</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60579,7 +60579,7 @@
         <v>45174.59534722222</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60636,7 +60636,7 @@
         <v>45194</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60693,7 +60693,7 @@
         <v>45232</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60750,7 +60750,7 @@
         <v>45139</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60807,7 +60807,7 @@
         <v>44875</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60864,7 +60864,7 @@
         <v>45618</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60921,7 +60921,7 @@
         <v>45622.69833333333</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -60978,7 +60978,7 @@
         <v>45513.53226851852</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61040,7 +61040,7 @@
         <v>45666.55527777778</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61097,7 +61097,7 @@
         <v>45334.3753125</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61154,7 +61154,7 @@
         <v>44939.44358796296</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61211,7 +61211,7 @@
         <v>45259</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61268,7 +61268,7 @@
         <v>45742.32850694445</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61325,7 +61325,7 @@
         <v>45297.50574074074</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61387,7 +61387,7 @@
         <v>45352.64135416667</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61444,7 +61444,7 @@
         <v>45321.33939814815</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61501,7 +61501,7 @@
         <v>45775.45716435185</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61563,7 +61563,7 @@
         <v>45641.90386574074</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61620,7 +61620,7 @@
         <v>45641.91351851852</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         <v>45253.60089120371</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61734,7 +61734,7 @@
         <v>45588.31988425926</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -61791,7 +61791,7 @@
         <v>44909</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -61853,7 +61853,7 @@
         <v>45742.59943287037</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -61910,7 +61910,7 @@
         <v>45742.60391203704</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -61967,7 +61967,7 @@
         <v>45112</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -62024,7 +62024,7 @@
         <v>45541.46949074074</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -62081,7 +62081,7 @@
         <v>45625</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62138,7 +62138,7 @@
         <v>45595</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62195,7 +62195,7 @@
         <v>45646.7196412037</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62257,7 +62257,7 @@
         <v>45615.84907407407</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62314,7 +62314,7 @@
         <v>45769</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62376,7 +62376,7 @@
         <v>45623.59871527777</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62433,7 +62433,7 @@
         <v>45635.63310185185</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62490,7 +62490,7 @@
         <v>45635.63774305556</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62547,7 +62547,7 @@
         <v>45432.32908564815</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62604,7 +62604,7 @@
         <v>45639</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62661,7 +62661,7 @@
         <v>45722.53209490741</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -62718,7 +62718,7 @@
         <v>45770.35403935185</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -62775,7 +62775,7 @@
         <v>45671</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -62832,7 +62832,7 @@
         <v>45230</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -62889,7 +62889,7 @@
         <v>45776.3999537037</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -62946,7 +62946,7 @@
         <v>45776.28671296296</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -63003,7 +63003,7 @@
         <v>45776.31802083334</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -63060,7 +63060,7 @@
         <v>45764.57119212963</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63122,7 +63122,7 @@
         <v>45776.39649305555</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63179,7 +63179,7 @@
         <v>45776.28881944445</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63236,7 +63236,7 @@
         <v>45777</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63298,7 +63298,7 @@
         <v>45779.56446759259</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63360,7 +63360,7 @@
         <v>45782.44003472223</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63417,7 +63417,7 @@
         <v>45779</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63474,7 +63474,7 @@
         <v>45782.56483796296</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63531,7 +63531,7 @@
         <v>45279</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -63588,7 +63588,7 @@
         <v>45784</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -63645,7 +63645,7 @@
         <v>45505.46570601852</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -63702,7 +63702,7 @@
         <v>45784.34387731482</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -63759,7 +63759,7 @@
         <v>45616</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -63816,7 +63816,7 @@
         <v>45702</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -63873,7 +63873,7 @@
         <v>45516.60577546297</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -63930,7 +63930,7 @@
         <v>45784.99393518519</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -63987,7 +63987,7 @@
         <v>45273.66196759259</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -64044,7 +64044,7 @@
         <v>45582</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -64101,7 +64101,7 @@
         <v>45545.59650462963</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -64158,7 +64158,7 @@
         <v>45602.67575231481</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -64215,7 +64215,7 @@
         <v>45351</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -64272,7 +64272,7 @@
         <v>44799.64663194444</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -64334,7 +64334,7 @@
         <v>45786</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -64391,7 +64391,7 @@
         <v>45428.40965277778</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -64448,7 +64448,7 @@
         <v>45505.45523148148</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -64505,7 +64505,7 @@
         <v>45789.62225694444</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -64562,7 +64562,7 @@
         <v>45790.41590277778</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -64619,7 +64619,7 @@
         <v>45505.46128472222</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -64676,7 +64676,7 @@
         <v>45789.6521875</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -64733,7 +64733,7 @@
         <v>45559.67018518518</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -64795,7 +64795,7 @@
         <v>45791.53803240741</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -64852,7 +64852,7 @@
         <v>45518</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -64909,7 +64909,7 @@
         <v>45518.41770833333</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -64966,7 +64966,7 @@
         <v>45740.74896990741</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -65028,7 +65028,7 @@
         <v>45188.58259259259</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -65085,7 +65085,7 @@
         <v>45552</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -65142,7 +65142,7 @@
         <v>45793.61202546296</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -65199,7 +65199,7 @@
         <v>45796.70064814815</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -65256,7 +65256,7 @@
         <v>45796</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -65313,7 +65313,7 @@
         <v>45796.46270833333</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -65370,7 +65370,7 @@
         <v>45533</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -65427,7 +65427,7 @@
         <v>45097</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -65489,7 +65489,7 @@
         <v>45097</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -65551,7 +65551,7 @@
         <v>45796.45900462963</v>
       </c>
       <c r="C1086" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -65608,7 +65608,7 @@
         <v>45793.57851851852</v>
       </c>
       <c r="C1087" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -65670,7 +65670,7 @@
         <v>45594.41760416667</v>
       </c>
       <c r="C1088" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -65727,7 +65727,7 @@
         <v>45796.66003472222</v>
       </c>
       <c r="C1089" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -65784,7 +65784,7 @@
         <v>45798</v>
       </c>
       <c r="C1090" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -65841,7 +65841,7 @@
         <v>45798.35150462963</v>
       </c>
       <c r="C1091" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -65903,7 +65903,7 @@
         <v>45797.31393518519</v>
       </c>
       <c r="C1092" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -65960,7 +65960,7 @@
         <v>45799.52506944445</v>
       </c>
       <c r="C1093" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -66017,7 +66017,7 @@
         <v>45799.52755787037</v>
       </c>
       <c r="C1094" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -66074,7 +66074,7 @@
         <v>45799</v>
       </c>
       <c r="C1095" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -66131,7 +66131,7 @@
         <v>45803.58059027778</v>
       </c>
       <c r="C1096" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -66188,7 +66188,7 @@
         <v>45755.29123842593</v>
       </c>
       <c r="C1097" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -66245,7 +66245,7 @@
         <v>45803.44761574074</v>
       </c>
       <c r="C1098" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -66307,7 +66307,7 @@
         <v>45803.45435185185</v>
       </c>
       <c r="C1099" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -66369,7 +66369,7 @@
         <v>45373.45642361111</v>
       </c>
       <c r="C1100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -66426,7 +66426,7 @@
         <v>45803.45581018519</v>
       </c>
       <c r="C1101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -66488,7 +66488,7 @@
         <v>45804.63291666667</v>
       </c>
       <c r="C1102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -66545,7 +66545,7 @@
         <v>45803.44173611111</v>
       </c>
       <c r="C1103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -66607,7 +66607,7 @@
         <v>45555.45337962963</v>
       </c>
       <c r="C1104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -66664,7 +66664,7 @@
         <v>45803.45840277777</v>
       </c>
       <c r="C1105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
